--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B8B0E-0F16-4BE8-8961-3C68B7457C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F0673-3E7B-4E6D-AD65-251FC8051703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="677">
   <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2523,10 +2523,6 @@
   </si>
   <si>
     <t>카오 마이 름 프랑 래우 카</t>
-  </si>
-  <si>
-    <t>25분.7초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2911,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BE45-9FDD-4C11-88B2-8B333C39B087}">
-  <dimension ref="C5:I435"/>
+  <dimension ref="E5:I435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="C434" sqref="C434"/>
+      <selection activeCell="M432" sqref="M432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8547,7 +8543,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="433" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E433" s="4">
         <v>428</v>
       </c>
@@ -8562,10 +8558,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="434" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C434" t="s">
-        <v>677</v>
-      </c>
+    <row r="434" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E434" s="4">
         <v>429</v>
       </c>
@@ -8582,7 +8575,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="435" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E435" s="4">
         <v>430</v>
       </c>

--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23669B-C767-4A1A-BF1D-33C9B5108682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A19C2-EEF4-4692-8811-002A96855927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Voca I" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1644">
   <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4891,9 +4890,6 @@
     <t>내일 날씨가 어때요?</t>
   </si>
   <si>
-    <t>아깟 푸룽니 뻰양라이 크랍</t>
-  </si>
-  <si>
     <t>아깟 푸룽니 뻰양라이 카</t>
   </si>
   <si>
@@ -4993,15 +4989,9 @@
     <t>ทำไมรู้สึกเศร้าคะ</t>
   </si>
   <si>
-    <t>탐마이 리언 파싸타이 크랍</t>
-  </si>
-  <si>
     <t>ทำไมเรียนภาษาไทยครับ</t>
   </si>
   <si>
-    <t>탐마이 리언 파싸타이 카</t>
-  </si>
-  <si>
     <t>ทำไมเรียนภาษาไทยคะ</t>
   </si>
   <si>
@@ -5220,15 +5210,9 @@
     <t>ห้องไหนถูกคะ</t>
   </si>
   <si>
-    <t>첩 냄험 뱁 나이 크랍</t>
-  </si>
-  <si>
     <t>ชอบน้ำหอมแบบไหนครับ</t>
   </si>
   <si>
-    <t>첩 냄험 뱁 나이 카</t>
-  </si>
-  <si>
     <t>ชอบน้ำหอมแบบไหนคะ</t>
   </si>
   <si>
@@ -5251,6 +5235,251 @@
   </si>
   <si>
     <t>ห้องไหนไกลคะ</t>
+  </si>
+  <si>
+    <t>첩 남험 뱁 나이 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첩 남험 뱁 나이 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸바이 디 마이 카</t>
+  </si>
+  <si>
+    <t>싸바이(편안한) 디(좋은) 마이 크랍</t>
+  </si>
+  <si>
+    <t>히우 마이 크랍</t>
+  </si>
+  <si>
+    <t>히우 마이 카</t>
+  </si>
+  <si>
+    <t>배고파요?</t>
+  </si>
+  <si>
+    <t>많이 배고파요?</t>
+  </si>
+  <si>
+    <t>히우 막 마이 크랍</t>
+  </si>
+  <si>
+    <t>히우 막 마이 카</t>
+  </si>
+  <si>
+    <t>이 부근은 차가 많이 막혀요?</t>
+  </si>
+  <si>
+    <t>태우 니 롯띳 막 마이 크랍</t>
+  </si>
+  <si>
+    <t>태우 니 롯띳 막 마이 카</t>
+  </si>
+  <si>
+    <t>태우 니 미 라아한 마이 카</t>
+  </si>
+  <si>
+    <t>태우 니 미(있다, 가지다) 라아한 마이 크랍</t>
+  </si>
+  <si>
+    <t>잘 지내죠? (편안한, 좋은)</t>
+  </si>
+  <si>
+    <t>สบายดีไหมครับ</t>
+  </si>
+  <si>
+    <t>สบายดีไหมคะ</t>
+  </si>
+  <si>
+    <t>หิวไหมครับ</t>
+  </si>
+  <si>
+    <t>หิวไหมคะ</t>
+  </si>
+  <si>
+    <t>หิวมากไหมครับ</t>
+  </si>
+  <si>
+    <t>หิวมากไหมคะ</t>
+  </si>
+  <si>
+    <t>แถวนี้รถติดมากไหมครับ</t>
+  </si>
+  <si>
+    <t>แถวนี้รถติดมากไหมคะ</t>
+  </si>
+  <si>
+    <t>이 근처에는 식당이 있나요? (있다, 가지다)</t>
+  </si>
+  <si>
+    <t>แถวนี้มีร้านอาหารไหมครับ</t>
+  </si>
+  <si>
+    <t>แถวนี้มีร้านอาหารไหมคะ</t>
+  </si>
+  <si>
+    <t>밥 먹었어?</t>
+  </si>
+  <si>
+    <t>낀 마이 크랍</t>
+  </si>
+  <si>
+    <t>낀 마이 카</t>
+  </si>
+  <si>
+    <t>낀 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>낀 차이마이 카</t>
+  </si>
+  <si>
+    <t>갈꺼야?</t>
+  </si>
+  <si>
+    <t>빠이 마이 크랍</t>
+  </si>
+  <si>
+    <t>빠이 마이 카</t>
+  </si>
+  <si>
+    <t>빠이 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>빠이 차이마이 카</t>
+  </si>
+  <si>
+    <t>니 크 씨우 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>니 크 씨우 차이마이 카</t>
+  </si>
+  <si>
+    <t>풋 파싸 찐 껭 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>풋 파싸 찐 껭 차이마이 카</t>
+  </si>
+  <si>
+    <t>풋 파싸 까올리 약 차이마이 카</t>
+  </si>
+  <si>
+    <t>네 맞아요, 그래요</t>
+  </si>
+  <si>
+    <t>차이 크랍</t>
+  </si>
+  <si>
+    <t>차이 카</t>
+  </si>
+  <si>
+    <t>กินไหมครับ</t>
+  </si>
+  <si>
+    <t>กินไหมคะ</t>
+  </si>
+  <si>
+    <t>กินใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>กินใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>ไปไหมครับ</t>
+  </si>
+  <si>
+    <t>ไปไหมคะ</t>
+  </si>
+  <si>
+    <t>ไปใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>ไปใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>นี่คือสิวใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>นี่คือสิวใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>พูดภาษาเกาหลียากใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>พูดภาษาเกาหลียากใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>พูดภาษาจีนเก่งใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>พูดภาษาจีนเก่งใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>เมื่อวานทำงานใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>เมื่อวานทำงานใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>ตอนนี้ร้อนมากใช่ไหมครับ</t>
+  </si>
+  <si>
+    <t>ตอนนี้ร้อนมากใช่ไหมคะ</t>
+  </si>
+  <si>
+    <t>ใช่ครับ</t>
+  </si>
+  <si>
+    <t>ใช่คะ</t>
+  </si>
+  <si>
+    <t>밥 먹었지? (그렇지, 부가 의문문)?</t>
+  </si>
+  <si>
+    <t>갈꺼야? (그렇지?)</t>
+  </si>
+  <si>
+    <t>이것은 여드름이지? (그렇지?)</t>
+  </si>
+  <si>
+    <t>한국어 구사하는 거 어렵지? (그렇지?)</t>
+  </si>
+  <si>
+    <t>풋 파싸 까올리 약 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>중국어 구사하는 거 잘하지? (그렇지?)</t>
+  </si>
+  <si>
+    <t>어제 일했지? (그렇지?)</t>
+  </si>
+  <si>
+    <t>므아완 탐응าน 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>므아완 탐응าน 차이마이 카</t>
+  </si>
+  <si>
+    <t>지금 많이 덥지? (그렇지?)</t>
+  </si>
+  <si>
+    <t>뜬니 런 막 차이마이 크랍</t>
+  </si>
+  <si>
+    <t>뜬니 런 막 차이마이 카</t>
+  </si>
+  <si>
+    <t>아깟 푸룽니 뻰양라이(상태) 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐마이 리얀 파싸타이 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐마이 리얀 파싸타이 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5660,8 +5889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BE45-9FDD-4C11-88B2-8B333C39B087}">
   <dimension ref="A1:N595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="K514" sqref="K514"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="D546" sqref="D546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5669,7 +5898,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="42.875" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12136,7 +12365,7 @@
         <v>1445</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.3">
@@ -12151,7 +12380,7 @@
         <v>1446</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.3">
@@ -12165,10 +12394,10 @@
         <v>4</v>
       </c>
       <c r="D476" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E476" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="E476" s="2" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.3">
@@ -12180,10 +12409,10 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E477" s="2" t="s">
         <v>1461</v>
-      </c>
-      <c r="E477" s="2" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.3">
@@ -12197,10 +12426,10 @@
         <v>4</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1449</v>
+        <v>1641</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -12212,10 +12441,10 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.3">
@@ -12223,16 +12452,16 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -12244,10 +12473,10 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -12255,16 +12484,16 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -12276,10 +12505,10 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -12287,16 +12516,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -12308,10 +12537,10 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -12319,16 +12548,16 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -12340,10 +12569,10 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -12351,16 +12580,16 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1483</v>
+        <v>1642</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -12372,10 +12601,10 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1485</v>
+        <v>1643</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -12383,16 +12612,16 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -12404,10 +12633,10 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -12415,16 +12644,16 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -12436,10 +12665,10 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -12447,16 +12676,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -12468,10 +12697,10 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -12479,16 +12708,16 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -12500,10 +12729,10 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -12511,16 +12740,16 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -12532,10 +12761,10 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -12543,16 +12772,16 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -12564,10 +12793,10 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -12575,16 +12804,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -12596,10 +12825,10 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -12607,16 +12836,16 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -12628,10 +12857,10 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -12639,16 +12868,16 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -12660,10 +12889,10 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -12671,16 +12900,16 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -12692,10 +12921,10 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -12703,16 +12932,16 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -12724,10 +12953,10 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -12735,16 +12964,16 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -12756,10 +12985,10 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -12767,16 +12996,16 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -12788,10 +13017,10 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -12799,16 +13028,16 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -12820,10 +13049,10 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -12831,16 +13060,16 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -12852,10 +13081,10 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -12863,16 +13092,16 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -12884,10 +13113,10 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -12895,16 +13124,16 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -12916,253 +13145,493 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="4">
         <v>523</v>
       </c>
+      <c r="B524" s="2" t="s">
+        <v>1579</v>
+      </c>
       <c r="C524" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
         <v>524</v>
       </c>
+      <c r="B525" s="2"/>
       <c r="C525" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="4">
         <v>525</v>
       </c>
+      <c r="B526" s="2" t="s">
+        <v>1570</v>
+      </c>
       <c r="C526" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <v>526</v>
       </c>
+      <c r="B527" s="2"/>
       <c r="C527" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="4">
         <v>527</v>
       </c>
+      <c r="B528" s="2" t="s">
+        <v>1571</v>
+      </c>
       <c r="C528" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D528" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="4">
         <v>528</v>
       </c>
+      <c r="B529" s="2"/>
       <c r="C529" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D529" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
         <v>529</v>
       </c>
+      <c r="B530" s="2" t="s">
+        <v>1574</v>
+      </c>
       <c r="C530" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D530" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="4">
         <v>530</v>
       </c>
+      <c r="B531" s="2"/>
       <c r="C531" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D531" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
         <v>531</v>
       </c>
+      <c r="B532" s="2" t="s">
+        <v>1588</v>
+      </c>
       <c r="C532" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D532" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="4">
         <v>532</v>
       </c>
+      <c r="B533" s="2"/>
       <c r="C533" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D533" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
         <v>533</v>
       </c>
+      <c r="B534" s="2" t="s">
+        <v>1591</v>
+      </c>
       <c r="C534" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="4">
         <v>534</v>
       </c>
+      <c r="B535" s="2"/>
       <c r="C535" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D535" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
         <v>535</v>
       </c>
+      <c r="B536" s="2" t="s">
+        <v>1629</v>
+      </c>
       <c r="C536" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D536" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="4">
         <v>536</v>
       </c>
+      <c r="B537" s="2"/>
       <c r="C537" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D537" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
         <v>537</v>
       </c>
+      <c r="B538" s="2" t="s">
+        <v>1596</v>
+      </c>
       <c r="C538" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D538" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="4">
         <v>538</v>
       </c>
+      <c r="B539" s="2"/>
       <c r="C539" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D539" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
         <v>539</v>
       </c>
+      <c r="B540" s="2" t="s">
+        <v>1630</v>
+      </c>
       <c r="C540" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D540" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="4">
         <v>540</v>
       </c>
+      <c r="B541" s="2"/>
       <c r="C541" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D541" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="4">
         <v>541</v>
       </c>
+      <c r="B542" s="2" t="s">
+        <v>1631</v>
+      </c>
       <c r="C542" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D542" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="4">
         <v>542</v>
       </c>
+      <c r="B543" s="2"/>
       <c r="C543" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D543" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="4">
         <v>543</v>
       </c>
+      <c r="B544" s="2" t="s">
+        <v>1632</v>
+      </c>
       <c r="C544" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D544" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
         <v>544</v>
       </c>
+      <c r="B545" s="2"/>
       <c r="C545" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D545" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="4">
         <v>545</v>
       </c>
+      <c r="B546" s="2" t="s">
+        <v>1634</v>
+      </c>
       <c r="C546" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D546" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
         <v>546</v>
       </c>
+      <c r="B547" s="2"/>
       <c r="C547" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D547" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="4">
         <v>547</v>
       </c>
+      <c r="B548" s="2" t="s">
+        <v>1635</v>
+      </c>
       <c r="C548" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D548" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
         <v>548</v>
       </c>
+      <c r="B549" s="2"/>
       <c r="C549" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D549" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="4">
         <v>549</v>
       </c>
+      <c r="B550" s="2" t="s">
+        <v>1638</v>
+      </c>
       <c r="C550" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D550" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
         <v>550</v>
       </c>
+      <c r="B551" s="2"/>
       <c r="C551" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D551" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="4">
         <v>551</v>
       </c>
+      <c r="B552" s="2" t="s">
+        <v>1606</v>
+      </c>
       <c r="C552" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D552" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
         <v>552</v>
       </c>
+      <c r="B553" s="2"/>
       <c r="C553" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D553" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="4">
         <v>553</v>
       </c>
@@ -13170,7 +13639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
         <v>554</v>
       </c>
@@ -13178,7 +13647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="4">
         <v>555</v>
       </c>
@@ -13186,7 +13655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="4">
         <v>556</v>
       </c>
@@ -13194,7 +13663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="4">
         <v>557</v>
       </c>
@@ -13202,7 +13671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="4">
         <v>558</v>
       </c>
@@ -13210,7 +13679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
         <v>559</v>
       </c>

--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A19C2-EEF4-4692-8811-002A96855927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C90F64-868A-4CB6-91B4-297B4BC61D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1160">
   <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2529,516 +2529,15 @@
     <t>안녕하세요</t>
   </si>
   <si>
-    <t>สวัสดีค่ะ</t>
-  </si>
-  <si>
     <t>감사합니다</t>
   </si>
   <si>
-    <t>ขอบคุณค่ะ</t>
-  </si>
-  <si>
     <t>미안합니다</t>
   </si>
   <si>
-    <t>ขอโทษค่ะ</t>
-  </si>
-  <si>
-    <t>잘 지내요</t>
-  </si>
-  <si>
-    <t>สบายดีค่ะ</t>
-  </si>
-  <si>
-    <t>사랑</t>
-  </si>
-  <si>
-    <t>รัก</t>
-  </si>
-  <si>
-    <t>친구</t>
-  </si>
-  <si>
-    <t>เพื่อน</t>
-  </si>
-  <si>
-    <t>물</t>
-  </si>
-  <si>
-    <t>น้ำ</t>
-  </si>
-  <si>
-    <t>음식</t>
-  </si>
-  <si>
-    <t>อาหาร</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>ชา</t>
-  </si>
-  <si>
-    <t>커피</t>
-  </si>
-  <si>
-    <t>กาแฟ</t>
-  </si>
-  <si>
-    <t>책</t>
-  </si>
-  <si>
-    <t>หนังสือ</t>
-  </si>
-  <si>
-    <t>학교</t>
-  </si>
-  <si>
-    <t>โรงเรียน</t>
-  </si>
-  <si>
-    <t>집</t>
-  </si>
-  <si>
-    <t>บ้าน</t>
-  </si>
-  <si>
-    <t>회사</t>
-  </si>
-  <si>
-    <t>บริษัท</t>
-  </si>
-  <si>
-    <t>길</t>
-  </si>
-  <si>
-    <t>ถนน</t>
-  </si>
-  <si>
-    <t>자동차</t>
-  </si>
-  <si>
-    <t>รถยนต์</t>
-  </si>
-  <si>
-    <t>공원</t>
-  </si>
-  <si>
-    <t>สวนสาธารณะ</t>
-  </si>
-  <si>
-    <t>병원</t>
-  </si>
-  <si>
-    <t>โรงพยาบาล</t>
-  </si>
-  <si>
-    <t>사무실</t>
-  </si>
-  <si>
-    <t>สำนักงาน</t>
-  </si>
-  <si>
-    <t>돈</t>
-  </si>
-  <si>
-    <t>เงิน</t>
-  </si>
-  <si>
-    <t>시장</t>
-  </si>
-  <si>
-    <t>ตลาด</t>
-  </si>
-  <si>
-    <t>우체국</t>
-  </si>
-  <si>
-    <t>ไปรษณีย์</t>
-  </si>
-  <si>
-    <t>은행</t>
-  </si>
-  <si>
-    <t>ธนาคาร</t>
-  </si>
-  <si>
-    <t>전화</t>
-  </si>
-  <si>
-    <t>โทรศัพท์</t>
-  </si>
-  <si>
-    <t>인터넷</t>
-  </si>
-  <si>
-    <t>อินเทอร์เน็ต</t>
-  </si>
-  <si>
-    <t>이메일</t>
-  </si>
-  <si>
-    <t>อีเมล</t>
-  </si>
-  <si>
-    <t>일하다</t>
-  </si>
-  <si>
-    <t>ทำงาน</t>
-  </si>
-  <si>
-    <t>공부하다</t>
-  </si>
-  <si>
-    <t>เรียน</t>
-  </si>
-  <si>
-    <t>보고서</t>
-  </si>
-  <si>
-    <t>รายงาน</t>
-  </si>
-  <si>
-    <t>계산서</t>
-  </si>
-  <si>
-    <t>ใบเสร็จ</t>
-  </si>
-  <si>
-    <t>책상</t>
-  </si>
-  <si>
-    <t>โต๊ะทำงาน</t>
-  </si>
-  <si>
-    <t>의자</t>
-  </si>
-  <si>
-    <t>เก้าอี้</t>
-  </si>
-  <si>
-    <t>테이블</t>
-  </si>
-  <si>
-    <t>โต๊ะ</t>
-  </si>
-  <si>
-    <t>창문</t>
-  </si>
-  <si>
-    <t>หน้าต่าง</t>
-  </si>
-  <si>
-    <t>문</t>
-  </si>
-  <si>
-    <t>ประตู</t>
-  </si>
-  <si>
-    <t>전화기</t>
-  </si>
-  <si>
-    <t>โทรศัพท์มือถือ</t>
-  </si>
-  <si>
-    <t>노트북</t>
-  </si>
-  <si>
-    <t>คอมพิวเตอร์</t>
-  </si>
-  <si>
-    <t>가방</t>
-  </si>
-  <si>
-    <t>กระเป๋า</t>
-  </si>
-  <si>
-    <t>신발</t>
-  </si>
-  <si>
-    <t>รองเท้า</t>
-  </si>
-  <si>
-    <t>옷</t>
-  </si>
-  <si>
-    <t>เสื้อผ้า</t>
-  </si>
-  <si>
-    <t>모자</t>
-  </si>
-  <si>
-    <t>หมวก</t>
-  </si>
-  <si>
-    <t>안경</t>
-  </si>
-  <si>
-    <t>แว่นตา</t>
-  </si>
-  <si>
-    <t>머리카락</t>
-  </si>
-  <si>
     <t>ผม</t>
   </si>
   <si>
-    <t>손</t>
-  </si>
-  <si>
-    <t>มือ</t>
-  </si>
-  <si>
-    <t>발</t>
-  </si>
-  <si>
-    <t>เท้า</t>
-  </si>
-  <si>
-    <t>눈</t>
-  </si>
-  <si>
-    <t>ตา</t>
-  </si>
-  <si>
-    <t>입</t>
-  </si>
-  <si>
-    <t>ปาก</t>
-  </si>
-  <si>
-    <t>귀</t>
-  </si>
-  <si>
-    <t>หู</t>
-  </si>
-  <si>
-    <t>손톱</t>
-  </si>
-  <si>
-    <t>เล็บมือ</t>
-  </si>
-  <si>
-    <t>발톱</t>
-  </si>
-  <si>
-    <t>เล็บเท้า</t>
-  </si>
-  <si>
-    <t>하늘</t>
-  </si>
-  <si>
-    <t>ท้องฟ้า</t>
-  </si>
-  <si>
-    <t>바다</t>
-  </si>
-  <si>
-    <t>ทะเล</t>
-  </si>
-  <si>
-    <t>산</t>
-  </si>
-  <si>
-    <t>ภูเขา</t>
-  </si>
-  <si>
-    <t>강</t>
-  </si>
-  <si>
-    <t>แม่น้ำ</t>
-  </si>
-  <si>
-    <t>날씨</t>
-  </si>
-  <si>
-    <t>สภาพอากาศ</t>
-  </si>
-  <si>
-    <t>덥다</t>
-  </si>
-  <si>
-    <t>ร้อน</t>
-  </si>
-  <si>
-    <t>춥다</t>
-  </si>
-  <si>
-    <t>หนาว</t>
-  </si>
-  <si>
-    <t>비</t>
-  </si>
-  <si>
-    <t>ฝน</t>
-  </si>
-  <si>
-    <t>หิมะ</t>
-  </si>
-  <si>
-    <t>바람</t>
-  </si>
-  <si>
-    <t>ลม</t>
-  </si>
-  <si>
-    <t>구름</t>
-  </si>
-  <si>
-    <t>เมฆ</t>
-  </si>
-  <si>
-    <t>무겁다</t>
-  </si>
-  <si>
-    <t>หนัก</t>
-  </si>
-  <si>
-    <t>가볍다</t>
-  </si>
-  <si>
-    <t>เบา</t>
-  </si>
-  <si>
-    <t>빠르다</t>
-  </si>
-  <si>
-    <t>เร็ว</t>
-  </si>
-  <si>
-    <t>느리다</t>
-  </si>
-  <si>
-    <t>ช้า</t>
-  </si>
-  <si>
-    <t>길다</t>
-  </si>
-  <si>
-    <t>ยาว</t>
-  </si>
-  <si>
-    <t>짧다</t>
-  </si>
-  <si>
-    <t>สั้น</t>
-  </si>
-  <si>
-    <t>높다</t>
-  </si>
-  <si>
-    <t>สูง</t>
-  </si>
-  <si>
-    <t>낮다</t>
-  </si>
-  <si>
-    <t>เตี้ย</t>
-  </si>
-  <si>
-    <t>아름답다</t>
-  </si>
-  <si>
-    <t>สวย</t>
-  </si>
-  <si>
-    <t>못생기다</t>
-  </si>
-  <si>
-    <t>ขี้เหร่</t>
-  </si>
-  <si>
-    <t>재미있다</t>
-  </si>
-  <si>
-    <t>สนุก</t>
-  </si>
-  <si>
-    <t>지루하다</t>
-  </si>
-  <si>
-    <t>เบื่อ</t>
-  </si>
-  <si>
-    <t>행복하다</t>
-  </si>
-  <si>
-    <t>มีความสุข</t>
-  </si>
-  <si>
-    <t>슬프다</t>
-  </si>
-  <si>
-    <t>เสียใจ</t>
-  </si>
-  <si>
-    <t>화나다</t>
-  </si>
-  <si>
-    <t>โกรธ</t>
-  </si>
-  <si>
-    <t>놀라다</t>
-  </si>
-  <si>
-    <t>ตกใจ</t>
-  </si>
-  <si>
-    <t>걱정하다</t>
-  </si>
-  <si>
-    <t>กังวล</t>
-  </si>
-  <si>
-    <t>피곤하다</t>
-  </si>
-  <si>
-    <t>เหนื่อย</t>
-  </si>
-  <si>
-    <t>기쁘다</t>
-  </si>
-  <si>
-    <t>ดีใจ</t>
-  </si>
-  <si>
-    <t>화장실</t>
-  </si>
-  <si>
-    <t>ห้องน้ำ</t>
-  </si>
-  <si>
-    <t>침대</t>
-  </si>
-  <si>
-    <t>เตียง</t>
-  </si>
-  <si>
-    <t>소파</t>
-  </si>
-  <si>
-    <t>โซฟา</t>
-  </si>
-  <si>
-    <t>냉장고</t>
-  </si>
-  <si>
-    <t>ตู้เย็น</t>
-  </si>
-  <si>
-    <t>전자레인지</t>
-  </si>
-  <si>
-    <t>ไมโครเวฟ</t>
-  </si>
-  <si>
-    <t>세탁기</t>
-  </si>
-  <si>
-    <t>เครื่องซักผ้า</t>
-  </si>
-  <si>
     <t>듣다</t>
   </si>
   <si>
@@ -3051,1467 +2550,15 @@
     <t>ดู</t>
   </si>
   <si>
-    <t>읽다</t>
-  </si>
-  <si>
-    <t>อ่าน</t>
-  </si>
-  <si>
-    <t>쓰다</t>
-  </si>
-  <si>
-    <t>เขียน</t>
-  </si>
-  <si>
-    <t>사다</t>
-  </si>
-  <si>
-    <t>ซื้อ</t>
-  </si>
-  <si>
-    <t>팔다</t>
-  </si>
-  <si>
-    <t>ขาย</t>
-  </si>
-  <si>
-    <t>걷다</t>
-  </si>
-  <si>
-    <t>เดิน</t>
-  </si>
-  <si>
-    <t>뛰다</t>
-  </si>
-  <si>
-    <t>วิ่ง</t>
-  </si>
-  <si>
-    <t>앉다</t>
-  </si>
-  <si>
-    <t>นั่ง</t>
-  </si>
-  <si>
-    <t>서다</t>
-  </si>
-  <si>
-    <t>ยืน</t>
-  </si>
-  <si>
-    <t>นอน</t>
-  </si>
-  <si>
-    <t>웃다</t>
-  </si>
-  <si>
-    <t>울다</t>
-  </si>
-  <si>
-    <t>ร้องไห้</t>
-  </si>
-  <si>
     <t>말하다</t>
   </si>
   <si>
     <t>พูด</t>
   </si>
   <si>
-    <t>사와디카 (sawasdee ka – 3성)</t>
-  </si>
-  <si>
-    <t>코브쿤카 (khob khun ka – 3성)</t>
-  </si>
-  <si>
-    <t>코토트카 (khor thot ka – 3성)</t>
-  </si>
-  <si>
-    <t>사바이디카 (sabai dee ka – 4성)</t>
-  </si>
-  <si>
-    <t>락 (rak – 1성)</t>
-  </si>
-  <si>
-    <t>프안 (phuen – 2성)</t>
-  </si>
-  <si>
-    <t>남 (nam – 3성)</t>
-  </si>
-  <si>
-    <t>아하람 (ah-rham – 2성)</t>
-  </si>
-  <si>
-    <t>차 (cha – 4성)</t>
-  </si>
-  <si>
-    <t>까페 (kha-fae – 4성)</t>
-  </si>
-  <si>
-    <t>낭쓰으 (nang seu – 2성)</t>
-  </si>
-  <si>
-    <t>롱리엔 (rong rian – 2성)</t>
-  </si>
-  <si>
-    <t>반 (baan – 2성)</t>
-  </si>
-  <si>
-    <t>보리사 (bo ri sa – 2성)</t>
-  </si>
-  <si>
-    <t>타논 (thanon – 1성)</t>
-  </si>
-  <si>
-    <t>롯얀 (rot yan – 4성)</t>
-  </si>
-  <si>
-    <t>수안 사타라나 (suan sa tha ra na – 1성)</t>
-  </si>
-  <si>
-    <t>롱파야반 (rong pha ya ban – 4성)</t>
-  </si>
-  <si>
-    <t>삼낙안 (sam nak an – 2성)</t>
-  </si>
-  <si>
-    <t>녠 (ngern – 3성)</t>
-  </si>
-  <si>
-    <t>타랏 (talat – 2성)</t>
-  </si>
-  <si>
-    <t>프라이사니엥 (bai rai sa ni eng – 2성)</t>
-  </si>
-  <si>
-    <t>타나카안 (thana khan – 1성)</t>
-  </si>
-  <si>
-    <t>토라삐삭 (tho ra pisak – 4성)</t>
-  </si>
-  <si>
-    <t>인따에르넷 (internet – 2성)</t>
-  </si>
-  <si>
-    <t>이멜 (i mel – 2성)</t>
-  </si>
-  <si>
-    <t>탐완 (tham wan – 4성)</t>
-  </si>
-  <si>
-    <t>리엔 (rian – 2성)</t>
-  </si>
-  <si>
-    <t>라이완 (rai wan – 2성)</t>
-  </si>
-  <si>
-    <t>바이세드 (bai set – 2성)</t>
-  </si>
-  <si>
-    <t>또 (to – 4성)</t>
-  </si>
-  <si>
-    <t>카오이 (kao ee – 4성)</t>
-  </si>
-  <si>
-    <t>나타앙 (na ta ang – 1성)</t>
-  </si>
-  <si>
-    <t>프라뚜 (phra thoo – 2성)</t>
-  </si>
-  <si>
-    <t>토라삐삭 무터 (to ra pisak mue – 4성)</t>
-  </si>
-  <si>
-    <t>컴퓨터 (khom phew ter – 3성)</t>
-  </si>
-  <si>
-    <t>그라페우 (kra phao – 2성)</t>
-  </si>
-  <si>
-    <t>라오타우 (rao thao – 2성)</t>
-  </si>
-  <si>
-    <t>셔어파 (seua pha – 2성)</t>
-  </si>
-  <si>
-    <t>마왁 (mawak – 3성)</t>
-  </si>
-  <si>
-    <t>웬타 (wen tha – 3성)</t>
-  </si>
-  <si>
-    <t>폼 (phom – 1성)</t>
-  </si>
-  <si>
-    <t>무 (mue – 2성)</t>
-  </si>
-  <si>
-    <t>테우 (thao – 3성)</t>
-  </si>
-  <si>
-    <t>따 (ta – 1성)</t>
-  </si>
-  <si>
-    <t>박 (phak – 1성)</t>
-  </si>
-  <si>
-    <t>후 (hu – 1성)</t>
-  </si>
-  <si>
-    <t>랩무 (laep mue – 4성)</t>
-  </si>
-  <si>
-    <t>랩테우 (laep thao – 4성)</t>
-  </si>
-  <si>
-    <t>통파 (thong pha – 1성)</t>
-  </si>
-  <si>
-    <t>타레 (tha ray – 1성)</t>
-  </si>
-  <si>
-    <t>푸카오 (phu khao – 1성)</t>
-  </si>
-  <si>
-    <t>메야남 (mae ya nam – 1성)</t>
-  </si>
-  <si>
-    <t>사파아카아 (sa pha a kha – 1성)</t>
-  </si>
-  <si>
-    <t>론 (ron – 3성)</t>
-  </si>
-  <si>
-    <t>나오 (nao – 1성)</t>
-  </si>
-  <si>
-    <t>폰 (phon – 3성)</t>
-  </si>
-  <si>
-    <t>히마 (hi ma – 2성)</t>
-  </si>
-  <si>
-    <t>롬 (lom – 3성)</t>
-  </si>
-  <si>
-    <t>메크 (mek – 3성)</t>
-  </si>
-  <si>
-    <t>낙 (nak – 2성)</t>
-  </si>
-  <si>
-    <t>베우 (bao – 2성)</t>
-  </si>
-  <si>
-    <t>레우 (rew – 3성)</t>
-  </si>
-  <si>
-    <t>차 (cha – 1성)</t>
-  </si>
-  <si>
-    <t>야우 (yao – 2성)</t>
-  </si>
-  <si>
-    <t>산 (san – 1성)</t>
-  </si>
-  <si>
-    <t>쑹 (sung – 2성)</t>
-  </si>
-  <si>
-    <t>띠야 (ti ya – 3성)</t>
-  </si>
-  <si>
-    <t>스와이 (suai – 3성)</t>
-  </si>
-  <si>
-    <t>키래 (khi rae – 1성)</t>
-  </si>
-  <si>
-    <t>싸눙 (sanuk – 2성)</t>
-  </si>
-  <si>
-    <t>베우 (beu – 2성)</t>
-  </si>
-  <si>
-    <t>미크와암숙 (mee khwam suk – 1성)</t>
-  </si>
-  <si>
-    <t>세아 (sia – 1성)</t>
-  </si>
-  <si>
-    <t>그로트 (krod – 2성)</t>
-  </si>
-  <si>
-    <t>또까이 (tok kai – 2성)</t>
-  </si>
-  <si>
-    <t>깡완 (kang wan – 2성)</t>
-  </si>
-  <si>
-    <t>니어이 (neuai – 3성)</t>
-  </si>
-  <si>
-    <t>디짜이 (di jai – 2성)</t>
-  </si>
-  <si>
-    <t>홍남 (hong nam – 1성)</t>
-  </si>
-  <si>
-    <t>띠엥 (tiang – 2성)</t>
-  </si>
-  <si>
-    <t>쏘파 (so fa – 2성)</t>
-  </si>
-  <si>
-    <t>쁨엄베이 (tu yen – 1성)</t>
-  </si>
-  <si>
-    <t>마이크로웨브 (maikro wep – 3성)</t>
-  </si>
-  <si>
-    <t>크엥꺼사크왈 (khreung sak pha – 2성)</t>
-  </si>
-  <si>
-    <t>แท็กซี่</t>
-  </si>
-  <si>
-    <t>น้ำผลไม้</t>
-  </si>
-  <si>
     <t>한국어</t>
   </si>
   <si>
-    <t>태국어(한국어 발음)</t>
-  </si>
-  <si>
-    <t>태국어</t>
-  </si>
-  <si>
-    <t>락 (rak)</t>
-  </si>
-  <si>
-    <t>남 (nam)</t>
-  </si>
-  <si>
-    <t>아한 (a-han)</t>
-  </si>
-  <si>
-    <t>수아이 (suay)</t>
-  </si>
-  <si>
-    <t>비싸다</t>
-  </si>
-  <si>
-    <t>แพง</t>
-  </si>
-  <si>
-    <t>맛있다</t>
-  </si>
-  <si>
-    <t>아로이 (a-roi)</t>
-  </si>
-  <si>
-    <t>อร่อย</t>
-  </si>
-  <si>
-    <t>화장실 어디예요?</t>
-  </si>
-  <si>
-    <t>홍남 유-나이? (hong nam yoo nai)</t>
-  </si>
-  <si>
-    <t>ห้องน้ำอยู่ไหน</t>
-  </si>
-  <si>
-    <t>얼마예요?</t>
-  </si>
-  <si>
-    <t>타오라이? (tao rai)</t>
-  </si>
-  <si>
-    <t>เท่าไหร่</t>
-  </si>
-  <si>
-    <t>신용카드</t>
-  </si>
-  <si>
-    <t>뱃-깐-께이 (bat-kan-kred)</t>
-  </si>
-  <si>
-    <t>บัตรเครดิต</t>
-  </si>
-  <si>
-    <t>호텔</t>
-  </si>
-  <si>
-    <t>롱빠얌 (rong-pa-yam)</t>
-  </si>
-  <si>
-    <t>โรงแรม</t>
-  </si>
-  <si>
-    <t>공항</t>
-  </si>
-  <si>
-    <t>싸나빤 (sa-na-bin)</t>
-  </si>
-  <si>
-    <t>สนามบิน</t>
-  </si>
-  <si>
-    <t>택시</t>
-  </si>
-  <si>
-    <t>탁시 (tak-see)</t>
-  </si>
-  <si>
-    <t>여권</t>
-  </si>
-  <si>
-    <t>땁땃찐 (nang-sue-dtan-chin)</t>
-  </si>
-  <si>
-    <t>หนังสือเดินทาง</t>
-  </si>
-  <si>
-    <t>비즈니스</t>
-  </si>
-  <si>
-    <t>타낏까 (tha-nit-ka)</t>
-  </si>
-  <si>
-    <t>ธุรกิจ</t>
-  </si>
-  <si>
-    <t>계약서</t>
-  </si>
-  <si>
-    <t>까니아 (ka-ni-ya)</t>
-  </si>
-  <si>
-    <t>สัญญา</t>
-  </si>
-  <si>
-    <t>회의</t>
-  </si>
-  <si>
-    <t>깐땀 (kan-tam)</t>
-  </si>
-  <si>
-    <t>การประชุม</t>
-  </si>
-  <si>
-    <t>영수증</t>
-  </si>
-  <si>
-    <t>빋-께이 (bit-kred)</t>
-  </si>
-  <si>
-    <t>맛없다</t>
-  </si>
-  <si>
-    <t>마이 아로이 (mai a-roi)</t>
-  </si>
-  <si>
-    <t>ไม่อร่อย</t>
-  </si>
-  <si>
-    <t>가-페 (ka-fae)</t>
-  </si>
-  <si>
-    <t>차 (음료)</t>
-  </si>
-  <si>
-    <t>차 (cha)</t>
-  </si>
-  <si>
-    <t>빵</t>
-  </si>
-  <si>
-    <t>빵 (pang)</t>
-  </si>
-  <si>
-    <t>ขนมปัง</t>
-  </si>
-  <si>
-    <t>밥</t>
-  </si>
-  <si>
-    <t>카오 (khao)</t>
-  </si>
-  <si>
-    <t>ข้าว</t>
-  </si>
-  <si>
-    <t>고기</t>
-  </si>
-  <si>
-    <t>느아 (neua)</t>
-  </si>
-  <si>
-    <t>เนื้อ</t>
-  </si>
-  <si>
-    <t>치킨</t>
-  </si>
-  <si>
-    <t>까이 (kai)</t>
-  </si>
-  <si>
-    <t>ไก่</t>
-  </si>
-  <si>
-    <t>생선</t>
-  </si>
-  <si>
-    <t>플라 (pla)</t>
-  </si>
-  <si>
-    <t>ปลา</t>
-  </si>
-  <si>
-    <t>채소</t>
-  </si>
-  <si>
-    <t>팟 (phak)</t>
-  </si>
-  <si>
-    <t>ผัก</t>
-  </si>
-  <si>
-    <t>과일</t>
-  </si>
-  <si>
-    <t>폰-라-마이 (pon-la-mai)</t>
-  </si>
-  <si>
-    <t>ผลไม้</t>
-  </si>
-  <si>
-    <t>사과</t>
-  </si>
-  <si>
-    <t>앱-펀 (ap-pun)</t>
-  </si>
-  <si>
-    <t>แอปเปิ้ล</t>
-  </si>
-  <si>
-    <t>바나나</t>
-  </si>
-  <si>
-    <t>끌루-아이 (kluai)</t>
-  </si>
-  <si>
-    <t>กล้วย</t>
-  </si>
-  <si>
-    <t>우유</t>
-  </si>
-  <si>
-    <t>넘-뎃 (nom-det)</t>
-  </si>
-  <si>
-    <t>นมสด</t>
-  </si>
-  <si>
-    <t>주스</t>
-  </si>
-  <si>
-    <t>남-폰-라-마이 (nam-pon-la-mai)</t>
-  </si>
-  <si>
-    <t>물어보다</t>
-  </si>
-  <si>
-    <t>탐-땀 (tham-tam)</t>
-  </si>
-  <si>
-    <t>ถาม</t>
-  </si>
-  <si>
-    <t>알다</t>
-  </si>
-  <si>
-    <t>루 (ru)</t>
-  </si>
-  <si>
-    <t>รู้</t>
-  </si>
-  <si>
-    <t>모르다</t>
-  </si>
-  <si>
-    <t>마이 루 (mai ru)</t>
-  </si>
-  <si>
-    <t>ไม่รู้</t>
-  </si>
-  <si>
-    <t>도와주세요</t>
-  </si>
-  <si>
-    <t>츄아이-두-아이 (chuaai-duai)</t>
-  </si>
-  <si>
-    <t>ช่วยด้วย</t>
-  </si>
-  <si>
-    <t>천천히 말해주세요</t>
-  </si>
-  <si>
-    <t>포-왓-차-차 (phuut cha-cha)</t>
-  </si>
-  <si>
-    <t>พูดช้าๆ</t>
-  </si>
-  <si>
-    <t>다시 한 번 말해주세요</t>
-  </si>
-  <si>
-    <t>포-왓 이익 크랭 (phuut eek krang)</t>
-  </si>
-  <si>
-    <t>พูดอีกครั้ง</t>
-  </si>
-  <si>
-    <t>이해합니다</t>
-  </si>
-  <si>
-    <t>카오-짜이 (khao jai)</t>
-  </si>
-  <si>
-    <t>เข้าใจ</t>
-  </si>
-  <si>
-    <t>이해하지 못했습니다</t>
-  </si>
-  <si>
-    <t>마이 카오-짜이 (mai khao jai)</t>
-  </si>
-  <si>
-    <t>ไม่เข้าใจ</t>
-  </si>
-  <si>
-    <t>영어 할 줄 아세요?</t>
-  </si>
-  <si>
-    <t>푸-잇 팟사-앗 다이 마이 (phuut pasa-angrit dai mai)</t>
-  </si>
-  <si>
-    <t>พูดภาษาอังกฤษได้ไหม</t>
-  </si>
-  <si>
-    <t>조금만</t>
-  </si>
-  <si>
-    <t>니-노이 (nit noy)</t>
-  </si>
-  <si>
-    <t>นิดหน่อย</t>
-  </si>
-  <si>
-    <t>많이</t>
-  </si>
-  <si>
-    <t>마-마크 (mak mak)</t>
-  </si>
-  <si>
-    <t>มากๆ</t>
-  </si>
-  <si>
-    <t>여기</t>
-  </si>
-  <si>
-    <t>티-니 (tee nee)</t>
-  </si>
-  <si>
-    <t>ที่นี่</t>
-  </si>
-  <si>
-    <t>거기</t>
-  </si>
-  <si>
-    <t>티-난 (tee nan)</t>
-  </si>
-  <si>
-    <t>ที่นั่น</t>
-  </si>
-  <si>
-    <t>왼쪽</t>
-  </si>
-  <si>
-    <t>사이-싸이 (sai sai)</t>
-  </si>
-  <si>
-    <t>ซ้าย</t>
-  </si>
-  <si>
-    <t>오른쪽</t>
-  </si>
-  <si>
-    <t>사이-콰 (sai khwa)</t>
-  </si>
-  <si>
-    <t>ขวา</t>
-  </si>
-  <si>
-    <t>직진</t>
-  </si>
-  <si>
-    <t>트롱-빠이 (trong pai)</t>
-  </si>
-  <si>
-    <t>ตรงไป</t>
-  </si>
-  <si>
-    <t>뒤로</t>
-  </si>
-  <si>
-    <t>티-랑 (tee lang)</t>
-  </si>
-  <si>
-    <t>หลัง</t>
-  </si>
-  <si>
-    <t>가까워요</t>
-  </si>
-  <si>
-    <t>까이-깨 (klai)</t>
-  </si>
-  <si>
-    <t>ใกล้</t>
-  </si>
-  <si>
-    <t>멀어요</t>
-  </si>
-  <si>
-    <t>까이 마이 (klai mai)</t>
-  </si>
-  <si>
-    <t>ไกล</t>
-  </si>
-  <si>
-    <t>지금</t>
-  </si>
-  <si>
-    <t>딧-니 (dti-nii)</t>
-  </si>
-  <si>
-    <t>ตอนนี้</t>
-  </si>
-  <si>
-    <t>나중에</t>
-  </si>
-  <si>
-    <t>뜨-랭 (dtuu-lang)</t>
-  </si>
-  <si>
-    <t>ภายหลัง</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>원-니 (wan-nii)</t>
-  </si>
-  <si>
-    <t>วันนี้</t>
-  </si>
-  <si>
-    <t>어제</t>
-  </si>
-  <si>
-    <t>므아-완니 (meua-wan-nii)</t>
-  </si>
-  <si>
-    <t>เมื่อวาน</t>
-  </si>
-  <si>
-    <t>내일</t>
-  </si>
-  <si>
-    <t>프룩-니 (phrung-nii)</t>
-  </si>
-  <si>
-    <t>พรุ่งนี้</t>
-  </si>
-  <si>
-    <t>아침</t>
-  </si>
-  <si>
-    <t>차오 (chao)</t>
-  </si>
-  <si>
-    <t>เช้า</t>
-  </si>
-  <si>
-    <t>점심</t>
-  </si>
-  <si>
-    <t>떵 (dtaang)</t>
-  </si>
-  <si>
-    <t>เที่ยง</t>
-  </si>
-  <si>
-    <t>저녁</t>
-  </si>
-  <si>
-    <t>옌 (yen)</t>
-  </si>
-  <si>
-    <t>เย็น</t>
-  </si>
-  <si>
-    <t>밤</t>
-  </si>
-  <si>
-    <t>켄 (khen)</t>
-  </si>
-  <si>
-    <t>คืน</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>웨-라 (we-laa)</t>
-  </si>
-  <si>
-    <t>เวลา</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
-    <t>나-띠 (naa-dtii)</t>
-  </si>
-  <si>
-    <t>นาที</t>
-  </si>
-  <si>
-    <t>시계</t>
-  </si>
-  <si>
-    <t>나-리-까 (naa-lii-gaa)</t>
-  </si>
-  <si>
-    <t>นาฬิกา</t>
-  </si>
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>완-띠 (wan-dtii)</t>
-  </si>
-  <si>
-    <t>วันที่</t>
-  </si>
-  <si>
-    <t>일주일</t>
-  </si>
-  <si>
-    <t>아-띠 (aa-dtii)</t>
-  </si>
-  <si>
-    <t>อาทิตย์</t>
-  </si>
-  <si>
-    <t>월</t>
-  </si>
-  <si>
-    <t>두-안 (duu-an)</t>
-  </si>
-  <si>
-    <t>เดือน</t>
-  </si>
-  <si>
-    <t>년</t>
-  </si>
-  <si>
-    <t>삐 (bpii)</t>
-  </si>
-  <si>
-    <t>ปี</t>
-  </si>
-  <si>
-    <t>월요일</t>
-  </si>
-  <si>
-    <t>완 잔 (wan jan)</t>
-  </si>
-  <si>
-    <t>วันจันทร์</t>
-  </si>
-  <si>
-    <t>화요일</t>
-  </si>
-  <si>
-    <t>완 앙-칸 (wan ang-khaan)</t>
-  </si>
-  <si>
-    <t>วันอังคาร</t>
-  </si>
-  <si>
-    <t>수요일</t>
-  </si>
-  <si>
-    <t>완 풋 (wan phuut)</t>
-  </si>
-  <si>
-    <t>วันพุธ</t>
-  </si>
-  <si>
-    <t>목요일</t>
-  </si>
-  <si>
-    <t>완 파-룩 (wan pha-ruek)</t>
-  </si>
-  <si>
-    <t>วันพฤหัสบดี</t>
-  </si>
-  <si>
-    <t>금요일</t>
-  </si>
-  <si>
-    <t>완 쑥 (wan suk)</t>
-  </si>
-  <si>
-    <t>วันศุกร์</t>
-  </si>
-  <si>
-    <t>토요일</t>
-  </si>
-  <si>
-    <t>완 사오 (wan sao)</t>
-  </si>
-  <si>
-    <t>วันเสาร์</t>
-  </si>
-  <si>
-    <t>일요일</t>
-  </si>
-  <si>
-    <t>완 아-띠 (wan aa-dtii)</t>
-  </si>
-  <si>
-    <t>วันอาทิตย์</t>
-  </si>
-  <si>
-    <t>봄</t>
-  </si>
-  <si>
-    <t>루-둠 (ruu-dum)</t>
-  </si>
-  <si>
-    <t>ฤดูใบไม้ผลิ</t>
-  </si>
-  <si>
-    <t>여름</t>
-  </si>
-  <si>
-    <t>루-둠-론 (ruu-dum ron)</t>
-  </si>
-  <si>
-    <t>ฤดูร้อน</t>
-  </si>
-  <si>
-    <t>가을</t>
-  </si>
-  <si>
-    <t>루-둠-루-앙 (ruu-dum ruu-ang)</t>
-  </si>
-  <si>
-    <t>ฤดูใบไม้ร่วง</t>
-  </si>
-  <si>
-    <t>겨울</t>
-  </si>
-  <si>
-    <t>루-둠-나오 (ruu-dum naao)</t>
-  </si>
-  <si>
-    <t>ฤดูหนาว</t>
-  </si>
-  <si>
-    <t>아-가 (aa-gaa)</t>
-  </si>
-  <si>
-    <t>อากาศ</t>
-  </si>
-  <si>
-    <t>폰 (fon)</t>
-  </si>
-  <si>
-    <t>히-마 (hii-maa)</t>
-  </si>
-  <si>
-    <t>롬 (lom)</t>
-  </si>
-  <si>
-    <t>더워요</t>
-  </si>
-  <si>
-    <t>론 (ron)</t>
-  </si>
-  <si>
-    <t>추워요</t>
-  </si>
-  <si>
-    <t>나오 (naao)</t>
-  </si>
-  <si>
-    <t>습해요</t>
-  </si>
-  <si>
-    <t>쩜 (jjem)</t>
-  </si>
-  <si>
-    <t>ชื้น</t>
-  </si>
-  <si>
-    <t>맑아요</t>
-  </si>
-  <si>
-    <t>쎄-엉 (sa-eng)</t>
-  </si>
-  <si>
-    <t>แจ่มใส</t>
-  </si>
-  <si>
-    <t>흐려요</t>
-  </si>
-  <si>
-    <t>므앙 (meuang)</t>
-  </si>
-  <si>
-    <t>มืดครึ้ม</t>
-  </si>
-  <si>
-    <t>번개</t>
-  </si>
-  <si>
-    <t>까-라-댓 (gaa-laa-ded)</t>
-  </si>
-  <si>
-    <t>ฟ้าแลบ</t>
-  </si>
-  <si>
-    <t>천둥</t>
-  </si>
-  <si>
-    <t>까-라-돈 (gaa-laa-don)</t>
-  </si>
-  <si>
-    <t>ฟ้าร้อง</t>
-  </si>
-  <si>
-    <t>우산</t>
-  </si>
-  <si>
-    <t>ร่ม</t>
-  </si>
-  <si>
-    <t>씨-아 (sii-aa)</t>
-  </si>
-  <si>
-    <t>เสื้อ</t>
-  </si>
-  <si>
-    <t>바지</t>
-  </si>
-  <si>
-    <t>까-통 (gaa-dtong)</t>
-  </si>
-  <si>
-    <t>กางเกง</t>
-  </si>
-  <si>
-    <t>까-브-롱 (gaa-bpua-long)</t>
-  </si>
-  <si>
-    <t>므악 (meuak)</t>
-  </si>
-  <si>
-    <t>끄-랑 (geu-lang)</t>
-  </si>
-  <si>
-    <t>넌 (ngern)</t>
-  </si>
-  <si>
-    <t>지갑</t>
-  </si>
-  <si>
-    <t>끄-랑-넌 (geu-lang ngern)</t>
-  </si>
-  <si>
-    <t>กระเป๋าเงิน</t>
-  </si>
-  <si>
-    <t>따-랏 (dtaa-lad)</t>
-  </si>
-  <si>
-    <t>쇼핑</t>
-  </si>
-  <si>
-    <t>쌥-핑 (shopping)</t>
-  </si>
-  <si>
-    <t>ช้อปปิ้ง</t>
-  </si>
-  <si>
-    <t>계산하다</t>
-  </si>
-  <si>
-    <t>깁-땃 (gib-dtaad)</t>
-  </si>
-  <si>
-    <t>คิดเงิน</t>
-  </si>
-  <si>
-    <t>할인</t>
-  </si>
-  <si>
-    <t>랏-까 (lad-ka)</t>
-  </si>
-  <si>
-    <t>ลดราคา</t>
-  </si>
-  <si>
-    <t>영업 시간</t>
-  </si>
-  <si>
-    <t>웨-라-깐-탐 (we-laa-gan-tham)</t>
-  </si>
-  <si>
-    <t>เวลาทำการ</t>
-  </si>
-  <si>
-    <t>휴일</t>
-  </si>
-  <si>
-    <t>완-옷 (wan-ot)</t>
-  </si>
-  <si>
-    <t>วันหยุด</t>
-  </si>
-  <si>
-    <t>병</t>
-  </si>
-  <si>
-    <t>끌롱 (khu-long)</t>
-  </si>
-  <si>
-    <t>ขวด</t>
-  </si>
-  <si>
-    <t>물건</t>
-  </si>
-  <si>
-    <t>끄-웅 (khu-ung)</t>
-  </si>
-  <si>
-    <t>ของ</t>
-  </si>
-  <si>
-    <t>쑤 (suu)</t>
-  </si>
-  <si>
-    <t>카이 (khai)</t>
-  </si>
-  <si>
-    <t>뺑 (phaeng)</t>
-  </si>
-  <si>
-    <t>싸다</t>
-  </si>
-  <si>
-    <t>ถูก</t>
-  </si>
-  <si>
-    <t>가격</t>
-  </si>
-  <si>
-    <t>라-까 (raa-kaa)</t>
-  </si>
-  <si>
-    <t>ราคา</t>
-  </si>
-  <si>
-    <t>계산대</t>
-  </si>
-  <si>
-    <t>깐-땃 (khan-thaad)</t>
-  </si>
-  <si>
-    <t>เคาน์เตอร์</t>
-  </si>
-  <si>
-    <t>영수증 주세요</t>
-  </si>
-  <si>
-    <t>커-빋-께이-노이 (khor bit-kred noi)</t>
-  </si>
-  <si>
-    <t>ขอใบเสร็จหน่อย</t>
-  </si>
-  <si>
-    <t>카드 받으세요?</t>
-  </si>
-  <si>
-    <t>랏-뱃-깐-께이-다이-마이 (rab bat-gan-kred dai mai)</t>
-  </si>
-  <si>
-    <t>รับบัตรเครดิตได้ไหม</t>
-  </si>
-  <si>
-    <t>현금</t>
-  </si>
-  <si>
-    <t>넌-땃 (ngern-thaad)</t>
-  </si>
-  <si>
-    <t>เงินสด</t>
-  </si>
-  <si>
-    <t>거스름돈</t>
-  </si>
-  <si>
-    <t>넌-텅 (ngern-thueng)</t>
-  </si>
-  <si>
-    <t>เงินทอน</t>
-  </si>
-  <si>
-    <t>예쁘다</t>
-  </si>
-  <si>
-    <t>못생겼다</t>
-  </si>
-  <si>
-    <t>마이-수아이 (mai-suay)</t>
-  </si>
-  <si>
-    <t>ไม่สวย</t>
-  </si>
-  <si>
-    <t>크다</t>
-  </si>
-  <si>
-    <t>야이 (yai)</t>
-  </si>
-  <si>
-    <t>ใหญ่</t>
-  </si>
-  <si>
-    <t>작다</t>
-  </si>
-  <si>
-    <t>렉 (lek)</t>
-  </si>
-  <si>
-    <t>เล็ก</t>
-  </si>
-  <si>
-    <t>야오 (yao)</t>
-  </si>
-  <si>
-    <t>쌈 (sam)</t>
-  </si>
-  <si>
-    <t>새것</t>
-  </si>
-  <si>
-    <t>마이-모 (mai-mor)</t>
-  </si>
-  <si>
-    <t>ใหม่</t>
-  </si>
-  <si>
-    <t>오래된</t>
-  </si>
-  <si>
-    <t>까오 (kao)</t>
-  </si>
-  <si>
-    <t>เก่า</t>
-  </si>
-  <si>
-    <t>깨끗하다</t>
-  </si>
-  <si>
-    <t>싸-앗 (sa-at)</t>
-  </si>
-  <si>
-    <t>สะอาด</t>
-  </si>
-  <si>
-    <t>더럽다</t>
-  </si>
-  <si>
-    <t>쎄-랍 (sorap)</t>
-  </si>
-  <si>
-    <t>สกปรก</t>
-  </si>
-  <si>
-    <t>열다</t>
-  </si>
-  <si>
-    <t>뻬어 (per)</t>
-  </si>
-  <si>
-    <t>เปิด</t>
-  </si>
-  <si>
-    <t>닫다</t>
-  </si>
-  <si>
-    <t>빳 (pat)</t>
-  </si>
-  <si>
-    <t>ปิด</t>
-  </si>
-  <si>
-    <t>켜다</t>
-  </si>
-  <si>
-    <t>켜 (khia)</t>
-  </si>
-  <si>
-    <t>เปิด(ไฟ)</t>
-  </si>
-  <si>
-    <t>끄다</t>
-  </si>
-  <si>
-    <t>끄 (khu)</t>
-  </si>
-  <si>
-    <t>ปิด(ไฟ)</t>
-  </si>
-  <si>
-    <t>들어오다</t>
-  </si>
-  <si>
-    <t>เข้า</t>
-  </si>
-  <si>
-    <t>나가다</t>
-  </si>
-  <si>
-    <t>어옥 (ork)</t>
-  </si>
-  <si>
-    <t>ออก</t>
-  </si>
-  <si>
-    <t>윳 (yut)</t>
-  </si>
-  <si>
-    <t>낭 (nang)</t>
-  </si>
-  <si>
-    <t>뎅 (dern)</t>
-  </si>
-  <si>
-    <t>빈 (win)</t>
-  </si>
-  <si>
-    <t>주다</t>
-  </si>
-  <si>
-    <t>하이 (hai)</t>
-  </si>
-  <si>
-    <t>ให้</t>
-  </si>
-  <si>
-    <t>받다</t>
-  </si>
-  <si>
-    <t>랏 (rat)</t>
-  </si>
-  <si>
-    <t>รับ</t>
-  </si>
-  <si>
-    <t>던지다</t>
-  </si>
-  <si>
-    <t>볻 (bot)</t>
-  </si>
-  <si>
-    <t>ขว้าง</t>
-  </si>
-  <si>
-    <t>잡다</t>
-  </si>
-  <si>
-    <t>쫍 (chob)</t>
-  </si>
-  <si>
-    <t>จับ</t>
-  </si>
-  <si>
-    <t>놓다</t>
-  </si>
-  <si>
-    <t>욷 (yot)</t>
-  </si>
-  <si>
-    <t>วาง</t>
-  </si>
-  <si>
-    <t>일어나다</t>
-  </si>
-  <si>
-    <t>루억 (ruerk)</t>
-  </si>
-  <si>
-    <t>ลุก</t>
-  </si>
-  <si>
-    <t>자다</t>
-  </si>
-  <si>
-    <t>논 (non)</t>
-  </si>
-  <si>
-    <t>깨우다</t>
-  </si>
-  <si>
-    <t>뿌억 (puerk)</t>
-  </si>
-  <si>
-    <t>ปลุก</t>
-  </si>
-  <si>
-    <t>우 (u)</t>
-  </si>
-  <si>
-    <t>หัวเราะ</t>
-  </si>
-  <si>
-    <t>롱-해 (rong-haa)</t>
-  </si>
-  <si>
-    <t>풋 (phut)</t>
-  </si>
-  <si>
-    <t>팡 (fang)</t>
-  </si>
-  <si>
-    <t>둠 (doon)</t>
-  </si>
-  <si>
-    <t>언 (arn)</t>
-  </si>
-  <si>
-    <t>킨 (khian)</t>
-  </si>
-  <si>
     <t>쿤 뻰 크라이 크랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4548,10 +2595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누가 부유 합니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿤매 뻰 크라이 크랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5356,9 +3399,6 @@
     <t>니 크 씨우 차이마이 카</t>
   </si>
   <si>
-    <t>풋 파싸 찐 껭 차이마이 크랍</t>
-  </si>
-  <si>
     <t>풋 파싸 찐 껭 차이마이 카</t>
   </si>
   <si>
@@ -5446,21 +3486,12 @@
     <t>한국어 구사하는 거 어렵지? (그렇지?)</t>
   </si>
   <si>
-    <t>풋 파싸 까올리 약 차이마이 크랍</t>
-  </si>
-  <si>
     <t>중국어 구사하는 거 잘하지? (그렇지?)</t>
   </si>
   <si>
     <t>어제 일했지? (그렇지?)</t>
   </si>
   <si>
-    <t>므아완 탐응าน 차이마이 크랍</t>
-  </si>
-  <si>
-    <t>므아완 탐응าน 차이마이 카</t>
-  </si>
-  <si>
     <t>지금 많이 덥지? (그렇지?)</t>
   </si>
   <si>
@@ -5479,6 +3510,642 @@
   </si>
   <si>
     <t>탐마이 리얀 파싸타이 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므어완 탐응안 차이마이 카</t>
+  </si>
+  <si>
+    <t>풋 파싸 찐 껭(잘하다) 차이마이 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋 파싸 까올리 약(어려운) 차이마이 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>므어완 탐응안(work) 차이마이 크랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 부유 합니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두-(길게 발음)</t>
+  </si>
+  <si>
+    <t>퐈앙(f발음)</t>
+  </si>
+  <si>
+    <t>생각하다</t>
+  </si>
+  <si>
+    <t>푸^웃(좀 길게 발음)</t>
+  </si>
+  <si>
+    <t>같다(나도 마찬가지)</t>
+  </si>
+  <si>
+    <t>므V언 깐</t>
+  </si>
+  <si>
+    <t>같지 않다</t>
+  </si>
+  <si>
+    <t>마^이므언V깐</t>
+  </si>
+  <si>
+    <t>있다</t>
+  </si>
+  <si>
+    <t>미-(길게)</t>
+  </si>
+  <si>
+    <t>없다</t>
+  </si>
+  <si>
+    <t>마^이미-</t>
+  </si>
+  <si>
+    <t>쑤 v 운(길게)</t>
+  </si>
+  <si>
+    <r>
+      <t>능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써V엉</t>
+  </si>
+  <si>
+    <t>싸V암</t>
+  </si>
+  <si>
+    <r>
+      <t>씨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하^-</t>
+  </si>
+  <si>
+    <t>까^오</t>
+  </si>
+  <si>
+    <t>싸와디</t>
+  </si>
+  <si>
+    <t>คิด</t>
+  </si>
+  <si>
+    <t>เหมือนกัน</t>
+  </si>
+  <si>
+    <t>ไม่เหมือนกัน</t>
+  </si>
+  <si>
+    <t>มี</t>
+  </si>
+  <si>
+    <t>ไม่มี</t>
+  </si>
+  <si>
+    <t>ศูนย์</t>
+  </si>
+  <si>
+    <t>หนึ่ง</t>
+  </si>
+  <si>
+    <t>สอง</t>
+  </si>
+  <si>
+    <t>สาม</t>
+  </si>
+  <si>
+    <t>สี่</t>
+  </si>
+  <si>
+    <t>ห้า</t>
+  </si>
+  <si>
+    <t>혹⬊(짧게발음)</t>
+  </si>
+  <si>
+    <t>หก</t>
+  </si>
+  <si>
+    <t>쨋⬊(짧게발음)</t>
+  </si>
+  <si>
+    <t>เจ็ด</t>
+  </si>
+  <si>
+    <t>빼⬊앳</t>
+  </si>
+  <si>
+    <t>แปด</t>
+  </si>
+  <si>
+    <t>เก้า</t>
+  </si>
+  <si>
+    <t>씹⬊</t>
+  </si>
+  <si>
+    <t>สิบ</t>
+  </si>
+  <si>
+    <t>สวัสดี</t>
+  </si>
+  <si>
+    <t>커v어 토^옷</t>
+  </si>
+  <si>
+    <t>마^이뺀라이</t>
+  </si>
+  <si>
+    <t>ไม่</t>
+  </si>
+  <si>
+    <t>부정 부사 “아니다, ~하지 않다”</t>
+  </si>
+  <si>
+    <t>เป็น</t>
+  </si>
+  <si>
+    <t>동사 “~이다, 존재하다”</t>
+  </si>
+  <si>
+    <t>라이</t>
+  </si>
+  <si>
+    <t>ไร</t>
+  </si>
+  <si>
+    <t>의문 대명사 “무엇”</t>
+  </si>
+  <si>
+    <t>괜찮습니다(아무것도 아닙니다)</t>
+  </si>
+  <si>
+    <t>마^이</t>
+  </si>
+  <si>
+    <t>뺀</t>
+  </si>
+  <si>
+    <t>저(남자)</t>
+  </si>
+  <si>
+    <t>폼v</t>
+  </si>
+  <si>
+    <t>저(여자)</t>
+  </si>
+  <si>
+    <t>그, 그녀</t>
+  </si>
+  <si>
+    <r>
+      <t>킷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (짧게)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신</t>
+  </si>
+  <si>
+    <t>쿤(짧게)</t>
+  </si>
+  <si>
+    <t>선생</t>
+  </si>
+  <si>
+    <t>크루-(길게)</t>
+  </si>
+  <si>
+    <t>선생님</t>
+  </si>
+  <si>
+    <t>쿤크루-</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>츠^으(길게)</t>
+  </si>
+  <si>
+    <t>무엇</t>
+  </si>
+  <si>
+    <t>또는</t>
+  </si>
+  <si>
+    <t>르v으</t>
+  </si>
+  <si>
+    <t>이것</t>
+  </si>
+  <si>
+    <t>니^-(길게)</t>
+  </si>
+  <si>
+    <t>그것</t>
+  </si>
+  <si>
+    <t>난^</t>
+  </si>
+  <si>
+    <t>저것</t>
+  </si>
+  <si>
+    <t>노^온</t>
+  </si>
+  <si>
+    <t>펜</t>
+  </si>
+  <si>
+    <t>연필</t>
+  </si>
+  <si>
+    <t>딘 써v어</t>
+  </si>
+  <si>
+    <t>커⬊업쿤</t>
+  </si>
+  <si>
+    <t>ขอบคุณ</t>
+  </si>
+  <si>
+    <t>ขอโทษ</t>
+  </si>
+  <si>
+    <t>ไม่เป็นไร</t>
+  </si>
+  <si>
+    <t>디⬊찬v</t>
+  </si>
+  <si>
+    <t>ดิฉัน</t>
+  </si>
+  <si>
+    <t>เขา</t>
+  </si>
+  <si>
+    <t>คุณ</t>
+  </si>
+  <si>
+    <t>ครู</t>
+  </si>
+  <si>
+    <t>คุณครู</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>아⬊라이</t>
+  </si>
+  <si>
+    <t>อะไร</t>
+  </si>
+  <si>
+    <t>หรือ</t>
+  </si>
+  <si>
+    <t>นี่</t>
+  </si>
+  <si>
+    <t>นั่น</t>
+  </si>
+  <si>
+    <t>โน่น</t>
+  </si>
+  <si>
+    <t>ปากกา</t>
+  </si>
+  <si>
+    <t>ดินสอ</t>
+  </si>
+  <si>
+    <t>지우개</t>
+  </si>
+  <si>
+    <r>
+      <t>카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야앙</t>
+  </si>
+  <si>
+    <t>고무</t>
+  </si>
+  <si>
+    <t>지우다</t>
+  </si>
+  <si>
+    <t>롭</t>
+  </si>
+  <si>
+    <t>분필(영어 초크)</t>
+  </si>
+  <si>
+    <t>아니다</t>
+  </si>
+  <si>
+    <t>마^이 차^이</t>
+  </si>
+  <si>
+    <t>모릅니다</t>
+  </si>
+  <si>
+    <t>마^이 싸^압</t>
+  </si>
+  <si>
+    <t>싸^압</t>
+  </si>
+  <si>
+    <t>압니다(알다)</t>
+  </si>
+  <si>
+    <t>좋아하다</t>
+  </si>
+  <si>
+    <t>처^업</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <r>
+      <t>빠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>악까</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+  </si>
+  <si>
+    <t>파-싸v아 까올리v-</t>
+  </si>
+  <si>
+    <t>프랑스어</t>
+  </si>
+  <si>
+    <t>파-싸v아 찐-</t>
+  </si>
+  <si>
+    <t>독일러</t>
+  </si>
+  <si>
+    <t>색(색깔)</t>
+  </si>
+  <si>
+    <t>씨v-</t>
+  </si>
+  <si>
+    <t>빨간색</t>
+  </si>
+  <si>
+    <t>씨v-대앵</t>
+  </si>
+  <si>
+    <t>주황색</t>
+  </si>
+  <si>
+    <t>씨v-쏨^</t>
+  </si>
+  <si>
+    <t>녹색</t>
+  </si>
+  <si>
+    <t>씨v-키v여우</t>
+  </si>
+  <si>
+    <t>검은색</t>
+  </si>
+  <si>
+    <t>씨v- 담</t>
+  </si>
+  <si>
+    <t>하얀색</t>
+  </si>
+  <si>
+    <t>씨v- 카v우</t>
+  </si>
+  <si>
+    <t>하늘색</t>
+  </si>
+  <si>
+    <t>파란색</t>
+  </si>
+  <si>
+    <t>갈색</t>
+  </si>
+  <si>
+    <t>야앙 롭⬈</t>
+  </si>
+  <si>
+    <t>ยางลบ</t>
+  </si>
+  <si>
+    <t>ยาง</t>
+  </si>
+  <si>
+    <t>ลบ</t>
+  </si>
+  <si>
+    <t>처⬈억</t>
+  </si>
+  <si>
+    <t>ชอล์ก</t>
+  </si>
+  <si>
+    <t>ไม่ใช่</t>
+  </si>
+  <si>
+    <t>ไม่ทราบ</t>
+  </si>
+  <si>
+    <t>ทราบ</t>
+  </si>
+  <si>
+    <t>ชอบ</t>
+  </si>
+  <si>
+    <t>파-싸v아 앙끄⬊릿</t>
+  </si>
+  <si>
+    <t>ภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>파-싸v아 이^-뿐⬊</t>
+  </si>
+  <si>
+    <t>ภาษาญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>ภาษาเกาหลี</t>
+  </si>
+  <si>
+    <t>파-싸v아 프⬊랑⬊셋⬊</t>
+  </si>
+  <si>
+    <t>ภาษาฝรั่งเศส</t>
+  </si>
+  <si>
+    <t>중국어</t>
+  </si>
+  <si>
+    <t>ภาษาจีน</t>
+  </si>
+  <si>
+    <t>파-싸v아 여라⬈만</t>
+  </si>
+  <si>
+    <t>ภาษาเยอรมัน</t>
+  </si>
+  <si>
+    <t>สี</t>
+  </si>
+  <si>
+    <t>สีแดง</t>
+  </si>
+  <si>
+    <t>สีส้ม</t>
+  </si>
+  <si>
+    <t>สีเขียว</t>
+  </si>
+  <si>
+    <t>สีดำ</t>
+  </si>
+  <si>
+    <t>สีขาว</t>
+  </si>
+  <si>
+    <t>สีฟ้า</t>
+  </si>
+  <si>
+    <t>씨v-남⬈- 응언</t>
+  </si>
+  <si>
+    <t>สีน้ำเงิน</t>
+  </si>
+  <si>
+    <t>씨v-남⬈-딴-</t>
+  </si>
+  <si>
+    <t>สีน้ำตาล</t>
+  </si>
+  <si>
+    <r>
+      <t>씨v-파화(f)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5486,7 +4153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5514,15 +4181,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5548,7 +4222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5568,9 +4242,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5889,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BE45-9FDD-4C11-88B2-8B333C39B087}">
   <dimension ref="A1:N595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="D546" sqref="D546"/>
+    <sheetView topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="H543" sqref="H543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11575,16 +10246,16 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>1341</v>
+        <v>690</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1339</v>
+        <v>688</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1354</v>
+        <v>702</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -11595,10 +10266,10 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>1340</v>
+        <v>689</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1355</v>
+        <v>703</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -11606,16 +10277,16 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>1348</v>
+        <v>992</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>1342</v>
+        <v>691</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1356</v>
+        <v>704</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -11626,10 +10297,10 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1343</v>
+        <v>692</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1357</v>
+        <v>705</v>
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
@@ -11641,16 +10312,16 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>1344</v>
+        <v>693</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>1345</v>
+        <v>694</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1358</v>
+        <v>706</v>
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
@@ -11665,10 +10336,10 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>1346</v>
+        <v>695</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1359</v>
+        <v>707</v>
       </c>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
@@ -11680,16 +10351,16 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>1347</v>
+        <v>696</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>1349</v>
+        <v>697</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1360</v>
+        <v>708</v>
       </c>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
@@ -11704,10 +10375,10 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>1350</v>
+        <v>698</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1361</v>
+        <v>709</v>
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
@@ -11719,16 +10390,16 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>1351</v>
+        <v>699</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>1352</v>
+        <v>700</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1362</v>
+        <v>710</v>
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
@@ -11743,10 +10414,10 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>1353</v>
+        <v>701</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1363</v>
+        <v>711</v>
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
@@ -11758,16 +10429,16 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>1364</v>
+        <v>712</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1365</v>
+        <v>713</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1379</v>
+        <v>727</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -11782,10 +10453,10 @@
         <v>6</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1366</v>
+        <v>714</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1380</v>
+        <v>728</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -11797,16 +10468,16 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>1367</v>
+        <v>715</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1368</v>
+        <v>716</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1381</v>
+        <v>729</v>
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
@@ -11821,10 +10492,10 @@
         <v>6</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1369</v>
+        <v>717</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1382</v>
+        <v>730</v>
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
@@ -11836,16 +10507,16 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>1370</v>
+        <v>718</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>1371</v>
+        <v>719</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1383</v>
+        <v>731</v>
       </c>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
@@ -11860,10 +10531,10 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1372</v>
+        <v>720</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1384</v>
+        <v>732</v>
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
@@ -11875,16 +10546,16 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>1373</v>
+        <v>721</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1374</v>
+        <v>722</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1385</v>
+        <v>733</v>
       </c>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
@@ -11899,10 +10570,10 @@
         <v>6</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1375</v>
+        <v>723</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1386</v>
+        <v>734</v>
       </c>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
@@ -11914,16 +10585,16 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>1376</v>
+        <v>724</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1377</v>
+        <v>725</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1387</v>
+        <v>735</v>
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
@@ -11938,10 +10609,10 @@
         <v>6</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1378</v>
+        <v>726</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1388</v>
+        <v>736</v>
       </c>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -11953,16 +10624,16 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>1389</v>
+        <v>737</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1390</v>
+        <v>738</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1404</v>
+        <v>752</v>
       </c>
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
@@ -11980,10 +10651,10 @@
         <v>6</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1391</v>
+        <v>739</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1405</v>
+        <v>753</v>
       </c>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
@@ -11998,16 +10669,16 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>1394</v>
+        <v>742</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>1392</v>
+        <v>740</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1406</v>
+        <v>754</v>
       </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
@@ -12022,10 +10693,10 @@
         <v>6</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1393</v>
+        <v>741</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1407</v>
+        <v>755</v>
       </c>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
@@ -12037,16 +10708,16 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>1395</v>
+        <v>743</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1396</v>
+        <v>744</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1408</v>
+        <v>756</v>
       </c>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -12061,10 +10732,10 @@
         <v>6</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1397</v>
+        <v>745</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1409</v>
+        <v>757</v>
       </c>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
@@ -12076,16 +10747,16 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>1398</v>
+        <v>746</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1399</v>
+        <v>747</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1410</v>
+        <v>758</v>
       </c>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
@@ -12100,10 +10771,10 @@
         <v>6</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1400</v>
+        <v>748</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1411</v>
+        <v>759</v>
       </c>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
@@ -12115,16 +10786,16 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>1401</v>
+        <v>749</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1402</v>
+        <v>750</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1412</v>
+        <v>760</v>
       </c>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
@@ -12139,10 +10810,10 @@
         <v>6</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1403</v>
+        <v>751</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1413</v>
+        <v>761</v>
       </c>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
@@ -12154,16 +10825,16 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>1414</v>
+        <v>762</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1415</v>
+        <v>763</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1417</v>
+        <v>765</v>
       </c>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
@@ -12178,10 +10849,10 @@
         <v>6</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1416</v>
+        <v>764</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1418</v>
+        <v>766</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -12189,16 +10860,16 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1430</v>
+        <v>778</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1419</v>
+        <v>767</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1431</v>
+        <v>779</v>
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
@@ -12213,10 +10884,10 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1420</v>
+        <v>768</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1432</v>
+        <v>780</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
@@ -12228,16 +10899,16 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1421</v>
+        <v>769</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1422</v>
+        <v>770</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1433</v>
+        <v>781</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.3">
@@ -12249,10 +10920,10 @@
         <v>6</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1423</v>
+        <v>771</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1434</v>
+        <v>782</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.3">
@@ -12260,16 +10931,16 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1435</v>
+        <v>783</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1424</v>
+        <v>772</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1436</v>
+        <v>784</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.3">
@@ -12281,10 +10952,10 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1425</v>
+        <v>773</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1437</v>
+        <v>785</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.3">
@@ -12292,16 +10963,16 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1438</v>
+        <v>786</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1426</v>
+        <v>774</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1439</v>
+        <v>787</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.3">
@@ -12313,10 +10984,10 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1427</v>
+        <v>775</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1440</v>
+        <v>788</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.3">
@@ -12324,16 +10995,16 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1441</v>
+        <v>789</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1428</v>
+        <v>776</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1442</v>
+        <v>790</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.3">
@@ -12345,10 +11016,10 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1429</v>
+        <v>777</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1443</v>
+        <v>791</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.3">
@@ -12356,16 +11027,16 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1444</v>
+        <v>792</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1445</v>
+        <v>793</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1456</v>
+        <v>804</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.3">
@@ -12377,10 +11048,10 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1446</v>
+        <v>794</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1457</v>
+        <v>805</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.3">
@@ -12388,16 +11059,16 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1447</v>
+        <v>795</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1458</v>
+        <v>806</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1459</v>
+        <v>807</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.3">
@@ -12409,10 +11080,10 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1460</v>
+        <v>808</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1461</v>
+        <v>809</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.3">
@@ -12420,16 +11091,16 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1448</v>
+        <v>796</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1641</v>
+        <v>985</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1462</v>
+        <v>810</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -12441,10 +11112,10 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1449</v>
+        <v>797</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1463</v>
+        <v>811</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.3">
@@ -12452,16 +11123,16 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1450</v>
+        <v>798</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1451</v>
+        <v>799</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1464</v>
+        <v>812</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -12473,10 +11144,10 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1452</v>
+        <v>800</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1465</v>
+        <v>813</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -12484,16 +11155,16 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1453</v>
+        <v>801</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1454</v>
+        <v>802</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1466</v>
+        <v>814</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -12505,10 +11176,10 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1455</v>
+        <v>803</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1467</v>
+        <v>815</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -12516,16 +11187,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1468</v>
+        <v>816</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1469</v>
+        <v>817</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1478</v>
+        <v>826</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -12537,10 +11208,10 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1470</v>
+        <v>818</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1479</v>
+        <v>827</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -12548,16 +11219,16 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1471</v>
+        <v>819</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1472</v>
+        <v>820</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1480</v>
+        <v>828</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -12569,10 +11240,10 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1473</v>
+        <v>821</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1481</v>
+        <v>829</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -12580,16 +11251,16 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1474</v>
+        <v>822</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1642</v>
+        <v>986</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1482</v>
+        <v>830</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -12601,10 +11272,10 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1643</v>
+        <v>987</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1483</v>
+        <v>831</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -12612,16 +11283,16 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1475</v>
+        <v>823</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1484</v>
+        <v>832</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1485</v>
+        <v>833</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -12633,10 +11304,10 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1486</v>
+        <v>834</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1487</v>
+        <v>835</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -12644,16 +11315,16 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1490</v>
+        <v>838</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1476</v>
+        <v>824</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1488</v>
+        <v>836</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -12665,10 +11336,10 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1477</v>
+        <v>825</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1489</v>
+        <v>837</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -12676,16 +11347,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1501</v>
+        <v>849</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1491</v>
+        <v>839</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1502</v>
+        <v>850</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -12697,10 +11368,10 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1492</v>
+        <v>840</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1503</v>
+        <v>851</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -12708,16 +11379,16 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1504</v>
+        <v>852</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1493</v>
+        <v>841</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1505</v>
+        <v>853</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -12729,10 +11400,10 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1494</v>
+        <v>842</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1506</v>
+        <v>854</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -12740,16 +11411,16 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1507</v>
+        <v>855</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1495</v>
+        <v>843</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1508</v>
+        <v>856</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -12761,10 +11432,10 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1496</v>
+        <v>844</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1509</v>
+        <v>857</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -12772,16 +11443,16 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1510</v>
+        <v>858</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1497</v>
+        <v>845</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1511</v>
+        <v>859</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -12793,10 +11464,10 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1498</v>
+        <v>846</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1512</v>
+        <v>860</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -12804,16 +11475,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1515</v>
+        <v>863</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1499</v>
+        <v>847</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1513</v>
+        <v>861</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -12825,10 +11496,10 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1500</v>
+        <v>848</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1514</v>
+        <v>862</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -12836,16 +11507,16 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1520</v>
+        <v>868</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1521</v>
+        <v>869</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1522</v>
+        <v>870</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -12857,10 +11528,10 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1523</v>
+        <v>871</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1524</v>
+        <v>872</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -12868,16 +11539,16 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1525</v>
+        <v>873</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1526</v>
+        <v>874</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1527</v>
+        <v>875</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -12889,10 +11560,10 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1528</v>
+        <v>876</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1529</v>
+        <v>877</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -12900,16 +11571,16 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1530</v>
+        <v>878</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1516</v>
+        <v>864</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1531</v>
+        <v>879</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -12921,10 +11592,10 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1517</v>
+        <v>865</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1532</v>
+        <v>880</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -12932,16 +11603,16 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1533</v>
+        <v>881</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1518</v>
+        <v>866</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1534</v>
+        <v>882</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -12953,10 +11624,10 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1535</v>
+        <v>883</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1536</v>
+        <v>884</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -12964,16 +11635,16 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1537</v>
+        <v>885</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1538</v>
+        <v>886</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1539</v>
+        <v>887</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -12985,10 +11656,10 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1519</v>
+        <v>867</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1540</v>
+        <v>888</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -12996,16 +11667,16 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1552</v>
+        <v>900</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1541</v>
+        <v>889</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1553</v>
+        <v>901</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -13017,10 +11688,10 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1542</v>
+        <v>890</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1554</v>
+        <v>902</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -13028,16 +11699,16 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1543</v>
+        <v>891</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1564</v>
+        <v>912</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1555</v>
+        <v>903</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -13049,10 +11720,10 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1565</v>
+        <v>913</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1556</v>
+        <v>904</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -13060,16 +11731,16 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1557</v>
+        <v>905</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1544</v>
+        <v>892</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1558</v>
+        <v>906</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -13081,10 +11752,10 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1545</v>
+        <v>893</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1559</v>
+        <v>907</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -13092,16 +11763,16 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1546</v>
+        <v>894</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1547</v>
+        <v>895</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1560</v>
+        <v>908</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -13113,10 +11784,10 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1548</v>
+        <v>896</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1561</v>
+        <v>909</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -13124,16 +11795,16 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1549</v>
+        <v>897</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1550</v>
+        <v>898</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1562</v>
+        <v>910</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -13145,10 +11816,10 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1551</v>
+        <v>899</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1563</v>
+        <v>911</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -13156,16 +11827,16 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1579</v>
+        <v>927</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1567</v>
+        <v>915</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1580</v>
+        <v>928</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -13177,10 +11848,10 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1566</v>
+        <v>914</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1581</v>
+        <v>929</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -13188,16 +11859,16 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1570</v>
+        <v>918</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1568</v>
+        <v>916</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1582</v>
+        <v>930</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -13209,10 +11880,10 @@
         <v>6</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1569</v>
+        <v>917</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1583</v>
+        <v>931</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -13220,16 +11891,16 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1571</v>
+        <v>919</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1572</v>
+        <v>920</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1584</v>
+        <v>932</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -13241,10 +11912,10 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1573</v>
+        <v>921</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1585</v>
+        <v>933</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -13252,16 +11923,16 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1574</v>
+        <v>922</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1575</v>
+        <v>923</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1586</v>
+        <v>934</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -13273,10 +11944,10 @@
         <v>6</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1576</v>
+        <v>924</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1587</v>
+        <v>935</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -13284,16 +11955,16 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1588</v>
+        <v>936</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1578</v>
+        <v>926</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1589</v>
+        <v>937</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -13305,10 +11976,10 @@
         <v>6</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1577</v>
+        <v>925</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1590</v>
+        <v>938</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -13316,16 +11987,16 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1591</v>
+        <v>939</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1592</v>
+        <v>940</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1609</v>
+        <v>956</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -13337,10 +12008,10 @@
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1593</v>
+        <v>941</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1610</v>
+        <v>957</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -13348,16 +12019,16 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1629</v>
+        <v>976</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1594</v>
+        <v>942</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1611</v>
+        <v>958</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -13369,10 +12040,10 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1595</v>
+        <v>943</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1612</v>
+        <v>959</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -13380,16 +12051,16 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1596</v>
+        <v>944</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1597</v>
+        <v>945</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1613</v>
+        <v>960</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -13401,10 +12072,10 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1598</v>
+        <v>946</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1614</v>
+        <v>961</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -13412,16 +12083,16 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1630</v>
+        <v>977</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1599</v>
+        <v>947</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1615</v>
+        <v>962</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -13433,10 +12104,10 @@
         <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1600</v>
+        <v>948</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1616</v>
+        <v>963</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -13444,16 +12115,16 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1631</v>
+        <v>978</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1601</v>
+        <v>949</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1617</v>
+        <v>964</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -13465,10 +12136,10 @@
         <v>6</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1602</v>
+        <v>950</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1618</v>
+        <v>965</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -13476,16 +12147,16 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1632</v>
+        <v>979</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1633</v>
+        <v>990</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1619</v>
+        <v>966</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -13497,10 +12168,10 @@
         <v>6</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1605</v>
+        <v>952</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>1620</v>
+        <v>967</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
@@ -13508,16 +12179,16 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1634</v>
+        <v>980</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1603</v>
+        <v>989</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>1621</v>
+        <v>968</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
@@ -13529,10 +12200,10 @@
         <v>6</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1604</v>
+        <v>951</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1622</v>
+        <v>969</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -13540,16 +12211,16 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1635</v>
+        <v>981</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1636</v>
+        <v>991</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1623</v>
+        <v>970</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -13561,10 +12232,10 @@
         <v>6</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1637</v>
+        <v>988</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1624</v>
+        <v>971</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
@@ -13572,16 +12243,16 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1638</v>
+        <v>982</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1639</v>
+        <v>983</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>1625</v>
+        <v>972</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
@@ -13593,10 +12264,10 @@
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1640</v>
+        <v>984</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1626</v>
+        <v>973</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
@@ -13604,16 +12275,16 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1606</v>
+        <v>953</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1607</v>
+        <v>954</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1627</v>
+        <v>974</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -13625,10 +12296,10 @@
         <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1608</v>
+        <v>955</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1628</v>
+        <v>975</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
@@ -13973,10 +12644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53633261-343C-43E5-B2B3-7E483D444F25}">
-  <dimension ref="E5:H435"/>
+  <dimension ref="E5:L435"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="M232" sqref="M232"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14006,13 +12677,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>678</v>
+        <v>993</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.3">
@@ -14020,13 +12691,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>680</v>
+        <v>994</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.3">
@@ -14034,13 +12705,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>681</v>
+        <v>995</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>682</v>
+        <v>1050</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.3">
@@ -14048,13 +12719,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>684</v>
+        <v>996</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.3">
@@ -14062,13 +12733,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>685</v>
+        <v>997</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>686</v>
+        <v>998</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.3">
@@ -14076,13 +12747,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>687</v>
+        <v>999</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>688</v>
+        <v>1000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.3">
@@ -14090,13 +12761,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>689</v>
+        <v>1001</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>690</v>
+        <v>1002</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.3">
@@ -14104,279 +12775,288 @@
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>691</v>
+        <v>1003</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>692</v>
+        <v>1004</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E14" s="4">
         <v>9</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>693</v>
+      <c r="F14" s="4">
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>694</v>
+        <v>1005</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>695</v>
+      <c r="F15" s="4">
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>696</v>
+        <v>1006</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E16" s="4">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>697</v>
+      <c r="F16" s="4">
+        <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17" s="4">
         <v>12</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>699</v>
+      <c r="F17" s="4">
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E18" s="4">
         <v>13</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>701</v>
+      <c r="F18" s="4">
+        <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1009</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E19" s="4">
         <v>14</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>703</v>
+      <c r="F19" s="4">
+        <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>705</v>
+      <c r="F20" s="4">
+        <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E21" s="4">
         <v>16</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>707</v>
+      <c r="F21" s="4">
+        <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E22" s="4">
         <v>17</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>709</v>
+      <c r="F22" s="4">
+        <v>8</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E23" s="4">
         <v>18</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>711</v>
+      <c r="F23" s="4">
+        <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1011</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E24" s="4">
         <v>19</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>713</v>
+      <c r="F24" s="4">
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E25" s="4">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E26" s="4">
         <v>21</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1071</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E27" s="4">
         <v>22</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E28" s="4">
         <v>23</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>721</v>
+        <v>1043</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E29" s="4">
         <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>723</v>
+        <v>1037</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E30" s="4">
         <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>725</v>
+        <v>1039</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E31" s="4">
         <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>727</v>
+        <v>1042</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E32" s="4">
         <v>27</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>729</v>
+        <v>1046</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>730</v>
+        <v>1047</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
@@ -14384,13 +13064,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>731</v>
+        <v>1048</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>732</v>
+        <v>1075</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
@@ -14398,13 +13078,13 @@
         <v>29</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>733</v>
+        <v>1049</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>734</v>
+        <v>1091</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
@@ -14412,13 +13092,13 @@
         <v>30</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>735</v>
+        <v>1051</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>736</v>
+        <v>1052</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
@@ -14426,13 +13106,13 @@
         <v>31</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>737</v>
+        <v>1053</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>738</v>
+        <v>1054</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
@@ -14440,13 +13120,13 @@
         <v>32</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>739</v>
+        <v>1055</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>740</v>
+        <v>1056</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
@@ -14454,13 +13134,13 @@
         <v>33</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>741</v>
+        <v>1057</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>742</v>
+        <v>1058</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.3">
@@ -14468,13 +13148,13 @@
         <v>34</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>743</v>
+        <v>1059</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>744</v>
+        <v>1082</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.3">
@@ -14482,13 +13162,13 @@
         <v>35</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>745</v>
+        <v>1060</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>746</v>
+        <v>1061</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.3">
@@ -14496,13 +13176,13 @@
         <v>36</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>747</v>
+        <v>1062</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>748</v>
+        <v>1063</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.3">
@@ -14510,13 +13190,13 @@
         <v>37</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>749</v>
+        <v>1064</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>750</v>
+        <v>1065</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.3">
@@ -14524,13 +13204,13 @@
         <v>38</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>751</v>
+        <v>1066</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>752</v>
+        <v>1067</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.3">
@@ -14538,13 +13218,13 @@
         <v>39</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>753</v>
+        <v>1068</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>754</v>
+        <v>1106</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.3">
@@ -14552,13 +13232,13 @@
         <v>40</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>755</v>
+        <v>1069</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>756</v>
+        <v>1070</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.3">
@@ -14566,13 +13246,13 @@
         <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>757</v>
+        <v>1090</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>758</v>
+        <v>1127</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.3">
@@ -14580,13 +13260,13 @@
         <v>42</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>759</v>
+        <v>1093</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>760</v>
+        <v>1092</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.3">
@@ -14594,13 +13274,13 @@
         <v>43</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>761</v>
+        <v>1094</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>762</v>
+        <v>1095</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.3">
@@ -14608,13 +13288,13 @@
         <v>44</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>763</v>
+        <v>1096</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>764</v>
+        <v>1131</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.3">
@@ -14622,13 +13302,13 @@
         <v>45</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>765</v>
+        <v>1097</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>766</v>
+        <v>1098</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.3">
@@ -14636,13 +13316,13 @@
         <v>46</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>767</v>
+        <v>1099</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>768</v>
+        <v>1100</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.3">
@@ -14650,13 +13330,13 @@
         <v>47</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>769</v>
+        <v>1102</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>770</v>
+        <v>1101</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.3">
@@ -14664,13 +13344,13 @@
         <v>48</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>771</v>
+        <v>1103</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>772</v>
+        <v>1104</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.3">
@@ -14678,13 +13358,13 @@
         <v>49</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>773</v>
+        <v>1105</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>774</v>
+        <v>1137</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.3">
@@ -14692,13 +13372,13 @@
         <v>50</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>775</v>
+        <v>1107</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>776</v>
+        <v>1139</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.3">
@@ -14706,13 +13386,13 @@
         <v>51</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>777</v>
+        <v>687</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>778</v>
+        <v>1108</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
@@ -14720,13 +13400,13 @@
         <v>52</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>779</v>
+        <v>1109</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>780</v>
+        <v>1142</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
@@ -14734,13 +13414,13 @@
         <v>53</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>781</v>
+        <v>1144</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>782</v>
+        <v>1110</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
@@ -14748,13 +13428,13 @@
         <v>54</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>783</v>
+        <v>1111</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>784</v>
+        <v>1146</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
@@ -14762,13 +13442,13 @@
         <v>55</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>785</v>
+        <v>1112</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>786</v>
+        <v>1113</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
@@ -14776,13 +13456,13 @@
         <v>56</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>787</v>
+        <v>1114</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>788</v>
+        <v>1115</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
@@ -14790,13 +13470,13 @@
         <v>57</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>789</v>
+        <v>1116</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>790</v>
+        <v>1117</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.3">
@@ -14804,13 +13484,13 @@
         <v>58</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>791</v>
+        <v>1118</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>792</v>
+        <v>1119</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.3">
@@ -14818,13 +13498,13 @@
         <v>59</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>767</v>
+        <v>1120</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>793</v>
+        <v>1121</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.3">
@@ -14832,13 +13512,13 @@
         <v>60</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>794</v>
+        <v>1122</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>795</v>
+        <v>1123</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.3">
@@ -14846,13 +13526,13 @@
         <v>61</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>796</v>
+        <v>1124</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>797</v>
+        <v>1159</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.3">
@@ -14860,13 +13540,13 @@
         <v>62</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>798</v>
+        <v>1125</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>799</v>
+        <v>1155</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.3">
@@ -14874,2400 +13554,1241 @@
         <v>63</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>800</v>
+        <v>1126</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>801</v>
+        <v>1157</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E69" s="4">
         <v>64</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>803</v>
-      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E70" s="4">
         <v>65</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>805</v>
-      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E71" s="4">
         <v>66</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>807</v>
-      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E72" s="4">
         <v>67</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>809</v>
-      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E73" s="4">
         <v>68</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>811</v>
-      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E74" s="4">
         <v>69</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>813</v>
-      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E75" s="4">
         <v>70</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>815</v>
-      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E76" s="4">
         <v>71</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>817</v>
-      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E77" s="4">
         <v>72</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>819</v>
-      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E78" s="4">
         <v>73</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>821</v>
-      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E79" s="4">
         <v>74</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>823</v>
-      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E80" s="4">
         <v>75</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>825</v>
-      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="4">
         <v>76</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>827</v>
-      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="4">
         <v>77</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>829</v>
-      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="4">
         <v>78</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>831</v>
-      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="4">
         <v>79</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>833</v>
-      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="4">
         <v>80</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>835</v>
-      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="4">
         <v>81</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>837</v>
-      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="4">
         <v>82</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>839</v>
-      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="4">
         <v>83</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>841</v>
-      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="4">
         <v>84</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>843</v>
-      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="4">
         <v>85</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>845</v>
-      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="4">
         <v>86</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>847</v>
-      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="4">
         <v>87</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>975</v>
-      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="4">
         <v>88</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>978</v>
-      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="4">
         <v>89</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>981</v>
-      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="4">
         <v>90</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>984</v>
-      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E96" s="4">
         <v>91</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>987</v>
-      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E97" s="4">
         <v>92</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>959</v>
-      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E98" s="4">
         <v>93</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>992</v>
-      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E99" s="4">
         <v>94</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>995</v>
-      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E100" s="4">
         <v>95</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>998</v>
-      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E101" s="4">
         <v>96</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>1001</v>
-      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E102" s="4">
         <v>97</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>736</v>
-      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E103" s="4">
         <v>98</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E104" s="4">
         <v>99</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>692</v>
-      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E105" s="4">
         <v>100</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>972</v>
-      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E106" s="4">
         <v>101</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>1006</v>
-      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E107" s="4">
         <v>102</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>696</v>
-      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E108" s="4">
         <v>103</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>694</v>
-      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E109" s="4">
         <v>104</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>1012</v>
-      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E110" s="4">
         <v>105</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>1015</v>
-      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E111" s="4">
         <v>106</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>1018</v>
-      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <v>107</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>1021</v>
-      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E113" s="4">
         <v>108</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>1024</v>
-      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E114" s="4">
         <v>109</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>1027</v>
-      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E115" s="4">
         <v>110</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>1030</v>
-      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E116" s="4">
         <v>111</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>1033</v>
-      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E117" s="4">
         <v>112</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>1036</v>
-      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E118" s="4">
         <v>113</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>1039</v>
-      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E119" s="4">
         <v>114</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>960</v>
-      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E120" s="4">
         <v>115</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>1044</v>
-      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E121" s="4">
         <v>116</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>1047</v>
-      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E122" s="4">
         <v>117</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>1050</v>
-      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E123" s="4">
         <v>118</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>1053</v>
-      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E124" s="4">
         <v>119</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E125" s="4">
         <v>120</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>1056</v>
-      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E126" s="4">
         <v>121</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>1059</v>
-      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E127" s="4">
         <v>122</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>1062</v>
-      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E128" s="4">
         <v>123</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="129" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E129" s="4">
         <v>124</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>1068</v>
-      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E130" s="4">
         <v>125</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>1071</v>
-      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E131" s="4">
         <v>126</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>1074</v>
-      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E132" s="4">
         <v>127</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>1077</v>
-      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E133" s="4">
         <v>128</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>1080</v>
-      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E134" s="4">
         <v>129</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>1083</v>
-      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E135" s="4">
         <v>130</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>1086</v>
-      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E136" s="4">
         <v>131</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>1089</v>
-      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E137" s="4">
         <v>132</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>1092</v>
-      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E138" s="4">
         <v>133</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>1095</v>
-      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E139" s="4">
         <v>134</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>1098</v>
-      </c>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E140" s="4">
         <v>135</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>1101</v>
-      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E141" s="4">
         <v>136</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>1104</v>
-      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E142" s="4">
         <v>137</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>1107</v>
-      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E143" s="4">
         <v>138</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>1110</v>
-      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E144" s="4">
         <v>139</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E145" s="4">
         <v>140</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E146" s="4">
         <v>141</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E147" s="4">
         <v>142</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E148" s="4">
         <v>143</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E149" s="4">
         <v>144</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E150" s="4">
         <v>145</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E151" s="4">
         <v>146</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E152" s="4">
         <v>147</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E153" s="4">
         <v>148</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E154" s="4">
         <v>149</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E155" s="4">
         <v>150</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E156" s="4">
         <v>151</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E157" s="4">
         <v>152</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E158" s="4">
         <v>153</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E159" s="4">
         <v>154</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E160" s="4">
         <v>155</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E161" s="4">
         <v>156</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E162" s="4">
         <v>157</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E163" s="4">
         <v>158</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E164" s="4">
         <v>159</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E165" s="4">
         <v>160</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E166" s="4">
         <v>161</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E167" s="4">
         <v>162</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E168" s="4">
         <v>163</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E169" s="4">
         <v>164</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E170" s="4">
         <v>165</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E171" s="4">
         <v>166</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E172" s="4">
         <v>167</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E173" s="4">
         <v>168</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E174" s="4">
         <v>169</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E175" s="4">
         <v>170</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E176" s="4">
         <v>171</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E177" s="4">
         <v>172</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E178" s="4">
         <v>173</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E179" s="4">
         <v>174</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E180" s="4">
         <v>175</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E181" s="4">
         <v>176</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E182" s="4">
         <v>177</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E183" s="4">
         <v>178</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E184" s="4">
         <v>179</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E185" s="4">
         <v>180</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E186" s="4">
         <v>181</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E187" s="4">
         <v>182</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E188" s="4">
         <v>183</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="189" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E189" s="4">
         <v>184</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E190" s="4">
         <v>185</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E191" s="4">
         <v>186</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E192" s="4">
         <v>187</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E193" s="4">
         <v>188</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E194" s="4">
         <v>189</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E195" s="4">
         <v>190</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E196" s="4">
         <v>191</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E197" s="4">
         <v>192</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E198" s="4">
         <v>193</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E199" s="4">
         <v>194</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G199" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E200" s="4">
         <v>195</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="201" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E201" s="4">
         <v>196</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E202" s="4">
         <v>197</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E203" s="4">
         <v>198</v>
       </c>
-      <c r="F203" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E204" s="4">
         <v>199</v>
       </c>
-      <c r="F204" s="4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E205" s="4">
         <v>200</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E206" s="4">
         <v>201</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E207" s="4">
         <v>202</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E208" s="4">
         <v>203</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G208" s="4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="209" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E209" s="4">
         <v>204</v>
       </c>
-      <c r="F209" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="210" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E210" s="4">
         <v>205</v>
       </c>
-      <c r="F210" s="4" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G210" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="211" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E211" s="4">
         <v>206</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G211" s="4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="212" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E212" s="4">
         <v>207</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="213" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E213" s="4">
         <v>208</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="214" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E214" s="4">
         <v>209</v>
       </c>
-      <c r="F214" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="215" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E215" s="4">
         <v>210</v>
       </c>
-      <c r="F215" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="216" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E216" s="4">
         <v>211</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="217" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E217" s="4">
         <v>212</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G217" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="218" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E218" s="4">
         <v>213</v>
       </c>
-      <c r="F218" s="4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="219" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E219" s="4">
         <v>214</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="220" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E220" s="4">
         <v>215</v>
       </c>
-      <c r="F220" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="221" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E221" s="4">
         <v>216</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="222" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E222" s="4">
         <v>217</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="223" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E223" s="4">
         <v>218</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E224" s="4">
         <v>219</v>
       </c>
-      <c r="F224" s="4" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="225" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E225" s="4">
         <v>220</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="226" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E226" s="4">
         <v>221</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G226" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="227" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E227" s="4">
         <v>222</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="228" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E228" s="4">
         <v>223</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="229" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E229" s="4">
         <v>224</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="230" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E230" s="4">
         <v>225</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="231" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E231" s="4">
         <v>226</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="232" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E232" s="4">
         <v>227</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="233" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E233" s="4">
         <v>228</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>1333</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="234" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E234" s="4">
         <v>229</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="235" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E235" s="4">
         <v>230</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="236" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E236" s="4">
         <v>231</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="237" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E237" s="4">
         <v>232</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="G237" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="238" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E238" s="4">
         <v>233</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="239" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
     </row>

--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C90F64-868A-4CB6-91B4-297B4BC61D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8147A39-B698-4977-8C88-B285D874DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>

--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8147A39-B698-4977-8C88-B285D874DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C4E2E-DE2F-4874-B89D-9A4EDA3A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1161">
   <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4146,6 +4146,10 @@
       </rPr>
       <t>-</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4222,7 +4226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4242,6 +4246,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12646,8 +12653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53633261-343C-43E5-B2B3-7E483D444F25}">
   <dimension ref="E5:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12788,8 +12795,8 @@
       <c r="E14" s="4">
         <v>9</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
+      <c r="F14" s="7" t="s">
+        <v>1160</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>1005</v>

--- a/public/Thai_Basic.xlsx
+++ b/public/Thai_Basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Book pro2\Desktop\develop\Thai Language\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C4E2E-DE2F-4874-B89D-9A4EDA3A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B6140-3AA3-4B92-BCFB-9E9000980836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50E21768-2997-4E9D-9C7F-B0EC34E93FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1290">
   <si>
     <t>한국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2535,9 +2535,42 @@
     <t>미안합니다</t>
   </si>
   <si>
+    <t>책</t>
+  </si>
+  <si>
+    <t>หนังสือ</t>
+  </si>
+  <si>
+    <t>돈</t>
+  </si>
+  <si>
+    <t>เงิน</t>
+  </si>
+  <si>
+    <t>의자</t>
+  </si>
+  <si>
+    <t>เก้าอี้</t>
+  </si>
+  <si>
+    <t>โต๊ะ</t>
+  </si>
+  <si>
+    <t>가방</t>
+  </si>
+  <si>
+    <t>กระเป๋า</t>
+  </si>
+  <si>
     <t>ผม</t>
   </si>
   <si>
+    <t>덥다</t>
+  </si>
+  <si>
+    <t>ร้อน</t>
+  </si>
+  <si>
     <t>듣다</t>
   </si>
   <si>
@@ -2557,6 +2590,27 @@
   </si>
   <si>
     <t>한국어</t>
+  </si>
+  <si>
+    <t>เข้าใจ</t>
+  </si>
+  <si>
+    <t>여기</t>
+  </si>
+  <si>
+    <t>ที่นี่</t>
+  </si>
+  <si>
+    <t>거기</t>
+  </si>
+  <si>
+    <t>ที่นั่น</t>
+  </si>
+  <si>
+    <t>เย็น</t>
+  </si>
+  <si>
+    <t>เข้า</t>
   </si>
   <si>
     <t>쿤 뻰 크라이 크랍</t>
@@ -3970,6 +4024,21 @@
     <t>일본어</t>
   </si>
   <si>
+    <r>
+      <t>파-싸v아 이^-뿐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>파-싸v아 까올리v-</t>
   </si>
   <si>
@@ -3979,9 +4048,6 @@
     <t>파-싸v아 찐-</t>
   </si>
   <si>
-    <t>독일러</t>
-  </si>
-  <si>
     <t>색(색깔)</t>
   </si>
   <si>
@@ -4063,9 +4129,6 @@
     <t>ภาษาอังกฤษ</t>
   </si>
   <si>
-    <t>파-싸v아 이^-뿐⬊</t>
-  </si>
-  <si>
     <t>ภาษาญี่ปุ่น</t>
   </si>
   <si>
@@ -4082,9 +4145,6 @@
   </si>
   <si>
     <t>ภาษาจีน</t>
-  </si>
-  <si>
-    <t>파-싸v아 여라⬈만</t>
   </si>
   <si>
     <t>ภาษาเยอรมัน</t>
@@ -4152,12 +4212,410 @@
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>독일어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍색</t>
+  </si>
+  <si>
+    <t>씨v- 촘푸-</t>
+  </si>
+  <si>
+    <t>금색</t>
+  </si>
+  <si>
+    <t>씨v- 터엉-</t>
+  </si>
+  <si>
+    <t>은색</t>
+  </si>
+  <si>
+    <t>씨v- 응언</t>
+  </si>
+  <si>
+    <t>응언</t>
+  </si>
+  <si>
+    <t>노란색</t>
+  </si>
+  <si>
+    <t>씨v- 르v앙</t>
+  </si>
+  <si>
+    <t>회색</t>
+  </si>
+  <si>
+    <t>씨v- 타오</t>
+  </si>
+  <si>
+    <t>진한 회색</t>
+  </si>
+  <si>
+    <t>연한 ~색</t>
+  </si>
+  <si>
+    <t>진한 ~색</t>
+  </si>
+  <si>
+    <t>연한 분홍색</t>
+  </si>
+  <si>
+    <r>
+      <t>파-싸v아 여라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭v쓰v으</t>
+  </si>
+  <si>
+    <t>공책</t>
+  </si>
+  <si>
+    <t>탁자</t>
+  </si>
+  <si>
+    <r>
+      <t>또</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>레^앰</t>
+  </si>
+  <si>
+    <t>สีชมพู</t>
+  </si>
+  <si>
+    <t>สีทอง</t>
+  </si>
+  <si>
+    <t>สีเงิน</t>
+  </si>
+  <si>
+    <t>สีเหลือง</t>
+  </si>
+  <si>
+    <t>สีเทา</t>
+  </si>
+  <si>
+    <t>씨v- 깨⬊-</t>
+  </si>
+  <si>
+    <t>สีเข้ม</t>
+  </si>
+  <si>
+    <t>씨v- 타오 깨⬊-</t>
+  </si>
+  <si>
+    <t>สีเทาเข้ม</t>
+  </si>
+  <si>
+    <t>씨v- 어⬊언</t>
+  </si>
+  <si>
+    <t>สีอ่อน</t>
+  </si>
+  <si>
+    <t>씨v- 촘푸-어⬊언</t>
+  </si>
+  <si>
+    <t>สีชมพูอ่อน</t>
+  </si>
+  <si>
+    <t>자 (ruler)</t>
+  </si>
+  <si>
+    <t>마⬈이 반탓⬈</t>
+  </si>
+  <si>
+    <t>ไม้บรรทัด</t>
+  </si>
+  <si>
+    <t>싸⬊뭇⬊</t>
+  </si>
+  <si>
+    <t>สมุด</t>
+  </si>
+  <si>
+    <t>까^오이^이</t>
+  </si>
+  <si>
+    <t>끄라⬊다⬊앗</t>
+  </si>
+  <si>
+    <t>กระดาษ</t>
+  </si>
+  <si>
+    <t>끄라⬊빠v오</t>
+  </si>
+  <si>
+    <t>몇 (숫자)</t>
+  </si>
+  <si>
+    <t>กี่</t>
+  </si>
+  <si>
+    <t>개 (물건 숫자)</t>
+  </si>
+  <si>
+    <t>อัน</t>
+  </si>
+  <si>
+    <t>권 (책)</t>
+  </si>
+  <si>
+    <t>เล่ม</t>
+  </si>
+  <si>
+    <t>장 (종이)</t>
+  </si>
+  <si>
+    <t>패⬊앤</t>
+  </si>
+  <si>
+    <t>แผ่น</t>
+  </si>
+  <si>
+    <t>동물</t>
+  </si>
+  <si>
+    <r>
+      <t>끼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⬊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>학생</t>
+  </si>
+  <si>
+    <t>남자</t>
+  </si>
+  <si>
+    <t>푸^우 차-이</t>
+  </si>
+  <si>
+    <t>여자</t>
+  </si>
+  <si>
+    <t>아시아인</t>
+  </si>
+  <si>
+    <t>콘 에-치-아</t>
+  </si>
+  <si>
+    <t>서양인</t>
+  </si>
+  <si>
+    <t>저기</t>
+  </si>
+  <si>
+    <t>카^오 짜이</t>
+  </si>
+  <si>
+    <t>들어가다</t>
+  </si>
+  <si>
+    <t>마음</t>
+  </si>
+  <si>
+    <t>짜이</t>
+  </si>
+  <si>
+    <t>배고프다</t>
+  </si>
+  <si>
+    <t>시원하다</t>
+  </si>
+  <si>
+    <t>옌</t>
+  </si>
+  <si>
+    <t>~아니다</t>
+  </si>
+  <si>
+    <t>~마^이</t>
+  </si>
+  <si>
+    <t>~이다</t>
+  </si>
+  <si>
+    <t>뺀~</t>
+  </si>
+  <si>
+    <t>요구하다</t>
+  </si>
+  <si>
+    <t>커v어</t>
+  </si>
+  <si>
+    <t>~좀 주세요</t>
+  </si>
+  <si>
+    <t>여기 있습니다</t>
+  </si>
+  <si>
+    <t>더~</t>
+  </si>
+  <si>
+    <t>쌌⬊ (짧게 발음)</t>
+  </si>
+  <si>
+    <t>สัตว์</t>
+  </si>
+  <si>
+    <t>콘 (짧게)</t>
+  </si>
+  <si>
+    <t>คน</t>
+  </si>
+  <si>
+    <t>나끄⬈리안</t>
+  </si>
+  <si>
+    <t>นักเรียน</t>
+  </si>
+  <si>
+    <t>ผู้ชาย</t>
+  </si>
+  <si>
+    <t>푸^우 잉v (짧게)</t>
+  </si>
+  <si>
+    <t>ผู้หญิง</t>
+  </si>
+  <si>
+    <t>คนเอเชีย</t>
+  </si>
+  <si>
+    <t>퐈 (f발음)⬊랑⬊</t>
+  </si>
+  <si>
+    <t>ฝรั่ง</t>
+  </si>
+  <si>
+    <t>티^이 니^이 (길게)</t>
+  </si>
+  <si>
+    <t>티^이 난^ (짧게)</t>
+  </si>
+  <si>
+    <t>티^이 노^온 (길게)</t>
+  </si>
+  <si>
+    <t>ที่นู่น</t>
+  </si>
+  <si>
+    <t>이해하다 (마음속으로 들어가다)</t>
+  </si>
+  <si>
+    <t>카^오</t>
+  </si>
+  <si>
+    <t>ใจ</t>
+  </si>
+  <si>
+    <t>히v우 (짧게)</t>
+  </si>
+  <si>
+    <t>หิว</t>
+  </si>
+  <si>
+    <t>러⬈언</t>
+  </si>
+  <si>
+    <t>ไม่~</t>
+  </si>
+  <si>
+    <t>เป็น~</t>
+  </si>
+  <si>
+    <t>ขอ</t>
+  </si>
+  <si>
+    <t>커v어 ~ 너⬊-이</t>
+  </si>
+  <si>
+    <t>ขอ ~ หน่อย</t>
+  </si>
+  <si>
+    <t>니^이 크⬈랍</t>
+  </si>
+  <si>
+    <t>นี่ครับ</t>
+  </si>
+  <si>
+    <t>익⬊- (길게)</t>
+  </si>
+  <si>
+    <t>ยิ่ง~</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4180,13 +4638,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4226,7 +4677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4243,9 +4694,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -4567,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA52BE45-9FDD-4C11-88B2-8B333C39B087}">
   <dimension ref="A1:N595"/>
   <sheetViews>
-    <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="H543" sqref="H543"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10253,16 +10701,16 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -10273,10 +10721,10 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -10284,16 +10732,16 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -10304,10 +10752,10 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
@@ -10319,16 +10767,16 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
@@ -10343,10 +10791,10 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
@@ -10358,16 +10806,16 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
@@ -10382,10 +10830,10 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
@@ -10397,16 +10845,16 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
@@ -10421,10 +10869,10 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
@@ -10436,16 +10884,16 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -10460,10 +10908,10 @@
         <v>6</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -10475,16 +10923,16 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
@@ -10499,10 +10947,10 @@
         <v>6</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
@@ -10514,16 +10962,16 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
@@ -10538,10 +10986,10 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
@@ -10553,16 +11001,16 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
@@ -10577,10 +11025,10 @@
         <v>6</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
@@ -10592,16 +11040,16 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
@@ -10616,10 +11064,10 @@
         <v>6</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
@@ -10631,16 +11079,16 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="H452" s="5"/>
       <c r="I452" s="5"/>
@@ -10658,10 +11106,10 @@
         <v>6</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
@@ -10676,16 +11124,16 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
@@ -10700,10 +11148,10 @@
         <v>6</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
@@ -10715,16 +11163,16 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -10739,10 +11187,10 @@
         <v>6</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
@@ -10754,16 +11202,16 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
@@ -10778,10 +11226,10 @@
         <v>6</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
@@ -10793,16 +11241,16 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
@@ -10817,10 +11265,10 @@
         <v>6</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
@@ -10832,16 +11280,16 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
@@ -10856,10 +11304,10 @@
         <v>6</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -10867,16 +11315,16 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
@@ -10891,10 +11339,10 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
@@ -10906,16 +11354,16 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.3">
@@ -10927,10 +11375,10 @@
         <v>6</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.3">
@@ -10938,16 +11386,16 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.3">
@@ -10959,10 +11407,10 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.3">
@@ -10970,16 +11418,16 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.3">
@@ -10991,10 +11439,10 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.3">
@@ -11002,16 +11450,16 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.3">
@@ -11023,10 +11471,10 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.3">
@@ -11034,16 +11482,16 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.3">
@@ -11055,10 +11503,10 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.3">
@@ -11066,16 +11514,16 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.3">
@@ -11087,10 +11535,10 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.3">
@@ -11098,16 +11546,16 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.3">
@@ -11119,10 +11567,10 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.3">
@@ -11130,16 +11578,16 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -11151,10 +11599,10 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -11162,16 +11610,16 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -11183,10 +11631,10 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -11194,16 +11642,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -11215,10 +11663,10 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -11226,16 +11674,16 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -11247,10 +11695,10 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -11258,16 +11706,16 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -11279,10 +11727,10 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -11290,16 +11738,16 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -11311,10 +11759,10 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -11322,16 +11770,16 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -11343,10 +11791,10 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -11354,16 +11802,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -11375,10 +11823,10 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -11386,16 +11834,16 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -11407,10 +11855,10 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -11418,16 +11866,16 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -11439,10 +11887,10 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -11450,16 +11898,16 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -11471,10 +11919,10 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -11482,16 +11930,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -11503,10 +11951,10 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -11514,16 +11962,16 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -11535,10 +11983,10 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -11546,16 +11994,16 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -11567,10 +12015,10 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -11578,16 +12026,16 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -11599,10 +12047,10 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -11610,16 +12058,16 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -11631,10 +12079,10 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -11642,16 +12090,16 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -11663,10 +12111,10 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -11674,16 +12122,16 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -11695,10 +12143,10 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -11706,16 +12154,16 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -11727,10 +12175,10 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -11738,16 +12186,16 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -11759,10 +12207,10 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -11770,16 +12218,16 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -11791,10 +12239,10 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -11802,16 +12250,16 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -11823,10 +12271,10 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -11834,16 +12282,16 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -11855,10 +12303,10 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -11866,16 +12314,16 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -11887,10 +12335,10 @@
         <v>6</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -11898,16 +12346,16 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -11919,10 +12367,10 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -11930,16 +12378,16 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -11951,10 +12399,10 @@
         <v>6</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -11962,16 +12410,16 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -11983,10 +12431,10 @@
         <v>6</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -11994,16 +12442,16 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -12015,10 +12463,10 @@
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -12026,16 +12474,16 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -12047,10 +12495,10 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -12058,16 +12506,16 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -12079,10 +12527,10 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -12090,16 +12538,16 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -12111,10 +12559,10 @@
         <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -12122,16 +12570,16 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -12143,10 +12591,10 @@
         <v>6</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -12154,16 +12602,16 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -12175,10 +12623,10 @@
         <v>6</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
@@ -12186,16 +12634,16 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
@@ -12207,10 +12655,10 @@
         <v>6</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -12218,16 +12666,16 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -12239,10 +12687,10 @@
         <v>6</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
@@ -12250,16 +12698,16 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
@@ -12271,10 +12719,10 @@
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
@@ -12282,16 +12730,16 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -12303,10 +12751,10 @@
         <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
@@ -12653,8 +13101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53633261-343C-43E5-B2B3-7E483D444F25}">
   <dimension ref="E5:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12684,13 +13132,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.3">
@@ -12698,13 +13146,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.3">
@@ -12712,13 +13160,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.3">
@@ -12726,13 +13174,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.3">
@@ -12740,13 +13188,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.3">
@@ -12754,13 +13202,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.3">
@@ -12768,13 +13216,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.3">
@@ -12782,27 +13230,27 @@
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E14" s="4">
         <v>9</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>1160</v>
+      <c r="F14" s="6" t="s">
+        <v>1176</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.3">
@@ -12813,10 +13261,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.3">
@@ -12827,10 +13275,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
@@ -12841,10 +13289,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -12855,10 +13303,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
@@ -12869,10 +13317,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -12883,10 +13331,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
@@ -12897,10 +13345,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
@@ -12911,10 +13359,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.3">
@@ -12925,10 +13373,10 @@
         <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.3">
@@ -12939,10 +13387,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.3">
@@ -12953,10 +13401,10 @@
         <v>677</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.3">
@@ -12967,10 +13415,10 @@
         <v>678</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.3">
@@ -12981,10 +13429,10 @@
         <v>679</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
@@ -12992,13 +13440,13 @@
         <v>23</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.3">
@@ -13006,13 +13454,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -13023,13 +13471,13 @@
         <v>25</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -13040,13 +13488,13 @@
         <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -13057,13 +13505,13 @@
         <v>27</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
@@ -13071,13 +13519,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
@@ -13085,13 +13533,13 @@
         <v>29</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
@@ -13099,13 +13547,13 @@
         <v>30</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
@@ -13113,13 +13561,13 @@
         <v>31</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
@@ -13127,13 +13575,13 @@
         <v>32</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
@@ -13141,13 +13589,13 @@
         <v>33</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.3">
@@ -13155,13 +13603,13 @@
         <v>34</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.3">
@@ -13169,13 +13617,13 @@
         <v>35</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.3">
@@ -13183,13 +13631,13 @@
         <v>36</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.3">
@@ -13197,13 +13645,13 @@
         <v>37</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.3">
@@ -13211,13 +13659,13 @@
         <v>38</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.3">
@@ -13225,13 +13673,13 @@
         <v>39</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>1106</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.3">
@@ -13239,13 +13687,13 @@
         <v>40</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.3">
@@ -13253,13 +13701,13 @@
         <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.3">
@@ -13267,13 +13715,13 @@
         <v>42</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.3">
@@ -13281,13 +13729,13 @@
         <v>43</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.3">
@@ -13295,13 +13743,13 @@
         <v>44</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.3">
@@ -13309,13 +13757,13 @@
         <v>45</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.3">
@@ -13323,13 +13771,13 @@
         <v>46</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.3">
@@ -13337,13 +13785,13 @@
         <v>47</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.3">
@@ -13351,13 +13799,13 @@
         <v>48</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.3">
@@ -13365,13 +13813,13 @@
         <v>49</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.3">
@@ -13379,13 +13827,13 @@
         <v>50</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1140</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.3">
@@ -13393,13 +13841,13 @@
         <v>51</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1141</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
@@ -13407,13 +13855,13 @@
         <v>52</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>1143</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
@@ -13421,13 +13869,13 @@
         <v>53</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1144</v>
+        <v>1161</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>1145</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
@@ -13435,13 +13883,13 @@
         <v>54</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1111</v>
+        <v>1177</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1146</v>
+        <v>1193</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
@@ -13449,13 +13897,13 @@
         <v>55</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
@@ -13463,13 +13911,13 @@
         <v>56</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
@@ -13477,13 +13925,13 @@
         <v>57</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.3">
@@ -13491,13 +13939,13 @@
         <v>58</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1151</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.3">
@@ -13505,13 +13953,13 @@
         <v>59</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.3">
@@ -13519,13 +13967,13 @@
         <v>60</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.3">
@@ -13533,13 +13981,13 @@
         <v>61</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1154</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.3">
@@ -13547,13 +13995,13 @@
         <v>62</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.3">
@@ -13561,358 +14009,616 @@
         <v>63</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E69" s="4">
         <v>64</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="6"/>
+      <c r="F69" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E70" s="4">
         <v>65</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="6"/>
+      <c r="F70" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E71" s="4">
         <v>66</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="6"/>
+      <c r="F71" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E72" s="4">
         <v>67</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="6"/>
+      <c r="F72" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E73" s="4">
         <v>68</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="6"/>
+      <c r="F73" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E74" s="4">
         <v>69</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="6"/>
+      <c r="F74" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E75" s="4">
         <v>70</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="6"/>
+      <c r="F75" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E76" s="4">
         <v>71</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="6"/>
+      <c r="F76" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E77" s="4">
         <v>72</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="6"/>
+      <c r="F77" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E78" s="4">
         <v>73</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="6"/>
+      <c r="F78" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E79" s="4">
         <v>74</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="6"/>
+      <c r="F79" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E80" s="4">
         <v>75</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="6"/>
+      <c r="F80" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="4">
         <v>76</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="6"/>
+      <c r="F81" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="4">
         <v>77</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="6"/>
+      <c r="F82" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="4">
         <v>78</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="6"/>
+      <c r="F83" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="4">
         <v>79</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="6"/>
+      <c r="F84" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="4">
         <v>80</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="6"/>
+      <c r="F85" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="4">
         <v>81</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="6"/>
+      <c r="F86" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>1224</v>
+      </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="4">
         <v>82</v>
       </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="6"/>
+      <c r="F87" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="4">
         <v>83</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="6"/>
+      <c r="F88" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>1228</v>
+      </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="4">
         <v>84</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="6"/>
+      <c r="F89" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="4">
         <v>85</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="6"/>
+      <c r="F90" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="4">
         <v>86</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="6"/>
+      <c r="F91" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="4">
         <v>87</v>
       </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="4">
         <v>88</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="4">
         <v>89</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="4">
         <v>90</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E96" s="4">
         <v>91</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E97" s="4">
         <v>92</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E98" s="4">
         <v>93</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E99" s="4">
         <v>94</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E100" s="4">
         <v>95</v>
       </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E101" s="4">
         <v>96</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E102" s="4">
         <v>97</v>
       </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E103" s="4">
         <v>98</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E104" s="4">
         <v>99</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E105" s="4">
         <v>100</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E106" s="4">
         <v>101</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E107" s="4">
         <v>102</v>
       </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E108" s="4">
         <v>103</v>
       </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E109" s="4">
         <v>104</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E110" s="4">
         <v>105</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E111" s="4">
         <v>106</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
